--- a/scimagojr/scimagojr_2018.xlsx
+++ b/scimagojr/scimagojr_2018.xlsx
@@ -164,24 +164,24 @@
     <t>Saudi Arabia</t>
   </si>
   <si>
+    <t>Israel</t>
+  </si>
+  <si>
     <t>Hong Kong</t>
   </si>
   <si>
-    <t>Israel</t>
-  </si>
-  <si>
     <t>Singapore</t>
   </si>
   <si>
+    <t>Finland</t>
+  </si>
+  <si>
     <t>Egypt</t>
   </si>
   <si>
     <t>Africa/Middle East</t>
   </si>
   <si>
-    <t>Finland</t>
-  </si>
-  <si>
     <t>Greece</t>
   </si>
   <si>
@@ -221,21 +221,21 @@
     <t>Iraq</t>
   </si>
   <si>
+    <t>Viet Nam</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
     <t>Tunisia</t>
   </si>
   <si>
-    <t>Viet Nam</t>
-  </si>
-  <si>
-    <t>Slovakia</t>
+    <t>Algeria</t>
   </si>
   <si>
     <t>Serbia</t>
   </si>
   <si>
-    <t>Algeria</t>
-  </si>
-  <si>
     <t>Croatia</t>
   </si>
   <si>
@@ -248,18 +248,21 @@
     <t>Slovenia</t>
   </si>
   <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
     <t>Bulgaria</t>
   </si>
   <si>
-    <t>Bangladesh</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
     <t>Jordan</t>
   </si>
   <si>
+    <t>Philippines</t>
+  </si>
+  <si>
     <t>Kazakhstan</t>
   </si>
   <si>
@@ -269,15 +272,12 @@
     <t>Qatar</t>
   </si>
   <si>
-    <t>Philippines</t>
+    <t>Lebanon</t>
   </si>
   <si>
     <t>Ethiopia</t>
   </si>
   <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
     <t>Peru</t>
   </si>
   <si>
@@ -365,12 +365,12 @@
     <t>Sudan</t>
   </si>
   <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
     <t>Senegal</t>
   </si>
   <si>
-    <t>Puerto Rico</t>
-  </si>
-  <si>
     <t>Palestine</t>
   </si>
   <si>
@@ -383,34 +383,37 @@
     <t>Bahrain</t>
   </si>
   <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
     <t>Panama</t>
   </si>
   <si>
     <t>Burkina Faso</t>
   </si>
   <si>
-    <t>Uzbekistan</t>
-  </si>
-  <si>
     <t>Zambia</t>
   </si>
   <si>
+    <t>Côte d’Ivoire</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
     <t>Brunei Darussalam</t>
   </si>
   <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>Côte d’Ivoire</t>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Yemen</t>
   </si>
   <si>
     <t>Benin</t>
   </si>
   <si>
-    <t>Yemen</t>
-  </si>
-  <si>
-    <t>Albania</t>
+    <t>Moldova</t>
   </si>
   <si>
     <t>Montenegro</t>
@@ -419,39 +422,36 @@
     <t>Mongolia</t>
   </si>
   <si>
-    <t>Moldova</t>
+    <t>Syrian Arab Republic</t>
   </si>
   <si>
     <t>Libya</t>
   </si>
   <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
     <t>Mozambique</t>
   </si>
   <si>
-    <t>Syrian Arab Republic</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
     <t>Namibia</t>
   </si>
   <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
     <t>Congo</t>
   </si>
   <si>
-    <t>Trinidad and Tobago</t>
+    <t>Jamaica</t>
   </si>
   <si>
     <t>Fiji</t>
   </si>
   <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
     <t>Bolivia</t>
   </si>
   <si>
@@ -464,42 +464,42 @@
     <t>Kyrgyzstan</t>
   </si>
   <si>
+    <t>Laos</t>
+  </si>
+  <si>
     <t>Guatemala</t>
   </si>
   <si>
-    <t>Laos</t>
-  </si>
-  <si>
     <t>Mali</t>
   </si>
   <si>
     <t>Paraguay</t>
   </si>
   <si>
+    <t>Grenada</t>
+  </si>
+  <si>
     <t>Afghanistan</t>
   </si>
   <si>
-    <t>Grenada</t>
+    <t>Togo</t>
   </si>
   <si>
     <t>Papua New Guinea</t>
   </si>
   <si>
-    <t>Togo</t>
+    <t>Dominican Republic</t>
   </si>
   <si>
     <t>Niger</t>
   </si>
   <si>
-    <t>Dominican Republic</t>
+    <t>New Caledonia</t>
   </si>
   <si>
     <t>Gabon</t>
   </si>
   <si>
-    <t>New Caledonia</t>
-  </si>
-  <si>
     <t>Honduras</t>
   </si>
   <si>
@@ -509,102 +509,102 @@
     <t>Monaco</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Sierra Leone</t>
   </si>
   <si>
     <t>Tajikistan</t>
   </si>
   <si>
+    <t>French Polynesia</t>
+  </si>
+  <si>
     <t>Gambia</t>
   </si>
   <si>
-    <t>French Polynesia</t>
-  </si>
-  <si>
-    <t>Swaziland</t>
+    <t>North Korea</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
   </si>
   <si>
     <t>Nicaragua</t>
   </si>
   <si>
+    <t>Barbados</t>
+  </si>
+  <si>
     <t>El Salvador</t>
   </si>
   <si>
-    <t>North Korea</t>
-  </si>
-  <si>
-    <t>Barbados</t>
-  </si>
-  <si>
     <t>Greenland</t>
   </si>
   <si>
-    <t>Liechtenstein</t>
+    <t>Angola</t>
   </si>
   <si>
     <t>Bhutan</t>
   </si>
   <si>
-    <t>Angola</t>
+    <t>Haïti</t>
   </si>
   <si>
     <t>French Guiana</t>
   </si>
   <si>
-    <t>Haïti</t>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
   </si>
   <si>
     <t>Liberia</t>
   </si>
   <si>
-    <t>Saint Kitts and Nevis</t>
-  </si>
-  <si>
-    <t>Faroe Islands</t>
-  </si>
-  <si>
-    <t>Guinea</t>
-  </si>
-  <si>
     <t>Burundi</t>
   </si>
   <si>
     <t>Bahamas</t>
   </si>
   <si>
+    <t>Guyana</t>
+  </si>
+  <si>
     <t>Central African Republic</t>
   </si>
   <si>
+    <t>Guadeloupe</t>
+  </si>
+  <si>
     <t>Mauritania</t>
   </si>
   <si>
     <t>Suriname</t>
   </si>
   <si>
-    <t>Guadeloupe</t>
-  </si>
-  <si>
-    <t>Guyana</t>
-  </si>
-  <si>
     <t>Guam</t>
   </si>
   <si>
+    <t>Reunion</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
     <t>Guinea-Bissau</t>
   </si>
   <si>
     <t>Solomon Islands</t>
   </si>
   <si>
-    <t>Reunion</t>
-  </si>
-  <si>
     <t>Chad</t>
   </si>
   <si>
-    <t>Lesotho</t>
-  </si>
-  <si>
     <t>Seychelles</t>
   </si>
   <si>
@@ -626,12 +626,12 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
     <t>Samoa</t>
   </si>
   <si>
-    <t>Cape Verde</t>
-  </si>
-  <si>
     <t>Maldives</t>
   </si>
   <si>
@@ -644,27 +644,27 @@
     <t>Cayman Islands</t>
   </si>
   <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>Falkland Islands (Malvinas)</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Republic of South Sudan</t>
+  </si>
+  <si>
     <t>Federated States of Micronesia</t>
   </si>
   <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>Falkland Islands (Malvinas)</t>
+    <t>Antigua and Barbuda</t>
   </si>
   <si>
     <t>American Samoa</t>
   </si>
   <si>
-    <t>Antigua and Barbuda</t>
-  </si>
-  <si>
-    <t>Republic of South Sudan</t>
-  </si>
-  <si>
-    <t>Tonga</t>
-  </si>
-  <si>
     <t>Equatorial Guinea</t>
   </si>
   <si>
@@ -683,34 +683,37 @@
     <t>Saint Lucia</t>
   </si>
   <si>
+    <t>Virgin Islands (U.S.)</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
     <t>Anguilla</t>
   </si>
   <si>
-    <t>Virgin Islands (U.S.)</t>
-  </si>
-  <si>
-    <t>Marshall Islands</t>
-  </si>
-  <si>
     <t>Turkmenistan</t>
   </si>
   <si>
     <t>Gibraltar</t>
   </si>
   <si>
+    <t>Vatican City State</t>
+  </si>
+  <si>
     <t>Cook Islands</t>
   </si>
   <si>
-    <t>Vatican City State</t>
+    <t>Saint Helena</t>
+  </si>
+  <si>
+    <t>Northern Mariana Islands</t>
   </si>
   <si>
     <t>Aruba</t>
   </si>
   <si>
-    <t>Northern Mariana Islands</t>
-  </si>
-  <si>
-    <t>Saint Helena</t>
+    <t>Saint Vincent and the Grenadines</t>
   </si>
   <si>
     <t>Sao Tome and Principe</t>
@@ -719,33 +722,30 @@
     <t>Turks and Caicos Islands</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>Svalbard and Jan Mayen</t>
   </si>
   <si>
     <t>Mayotte</t>
   </si>
   <si>
-    <t>Svalbard and Jan Mayen</t>
-  </si>
-  <si>
     <t>Netherlands Antilles</t>
   </si>
   <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>Virgin Islands (British)</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
     <t>South Georgia and the South Sandwich Islands</t>
   </si>
   <si>
-    <t>Virgin Islands (British)</t>
-  </si>
-  <si>
-    <t>Tuvalu</t>
-  </si>
-  <si>
-    <t>Kiribati</t>
-  </si>
-  <si>
-    <t>Montserrat</t>
-  </si>
-  <si>
     <t>United States Minor Outlying Islands</t>
   </si>
   <si>
@@ -758,16 +758,16 @@
     <t>Nauru</t>
   </si>
   <si>
+    <t>French Southern Territories</t>
+  </si>
+  <si>
+    <t>Tokelau</t>
+  </si>
+  <si>
     <t>British Indian Ocean Territory</t>
   </si>
   <si>
     <t>Niue</t>
-  </si>
-  <si>
-    <t>French Southern Territories</t>
-  </si>
-  <si>
-    <t>Tokelau</t>
   </si>
   <si>
     <t>Pitcairn</t>
@@ -914,22 +914,22 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>718762</v>
+        <v>735118</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>604776</v>
+        <v>610987</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>8806792</v>
+        <v>15285806</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>3588915</v>
+        <v>5689798</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>12.25</v>
+        <v>20.79</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>2711</v>
+        <v>3051</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
@@ -943,22 +943,22 @@
         <v>12</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>609496</v>
+        <v>607183</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>593011</v>
+        <v>593972</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>7066586</v>
+        <v>11912709</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>4594430</v>
+        <v>7581500</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>11.59</v>
+        <v>19.62</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>1112</v>
+        <v>1333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
@@ -972,22 +972,22 @@
         <v>14</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>223586</v>
+        <v>230806</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>182244</v>
+        <v>183653</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>2966091</v>
+        <v>5076627</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>674226</v>
+        <v>1020589</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>13.27</v>
+        <v>22</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>1707</v>
+        <v>1928</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
@@ -1001,22 +1001,22 @@
         <v>14</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>190967</v>
+        <v>192871</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>169741</v>
+        <v>171316</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>2347994</v>
+        <v>3887283</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>594201</v>
+        <v>870758</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>12.3</v>
+        <v>20.15</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>1498</v>
+        <v>1690</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
@@ -1030,22 +1030,22 @@
         <v>12</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>183075</v>
+        <v>180438</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>166916</v>
+        <v>163970</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>1313002</v>
+        <v>2269208</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>474373</v>
+        <v>820765</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>7.17</v>
+        <v>12.58</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>745</v>
+        <v>858</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
@@ -1059,22 +1059,22 @@
         <v>12</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>137913</v>
+        <v>138633</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>126649</v>
+        <v>127871</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>1227686</v>
+        <v>2030240</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>305408</v>
+        <v>448296</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>8.9</v>
+        <v>14.64</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>1171</v>
+        <v>1301</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
@@ -1088,22 +1088,22 @@
         <v>14</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>126973</v>
+        <v>127123</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>113011</v>
+        <v>113418</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>1562302</v>
+        <v>2496704</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>298720</v>
+        <v>433573</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>12.3</v>
+        <v>19.64</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>1352</v>
+        <v>1514</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
@@ -1117,22 +1117,22 @@
         <v>14</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>126036</v>
+        <v>127015</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>109640</v>
+        <v>110275</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>1595801</v>
+        <v>2604451</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>430594</v>
+        <v>621480</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>12.66</v>
+        <v>20.51</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>1189</v>
+        <v>1333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
@@ -1146,22 +1146,22 @@
         <v>10</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>116150</v>
+        <v>117383</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>101171</v>
+        <v>101679</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>1524254</v>
+        <v>2604913</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>269762</v>
+        <v>407826</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>13.12</v>
+        <v>22.19</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>1381</v>
+        <v>1562</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
@@ -1175,22 +1175,22 @@
         <v>22</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>108852</v>
+        <v>110748</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>94066</v>
+        <v>94758</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>1621703</v>
+        <v>2778697</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>314548</v>
+        <v>469818</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>14.9</v>
+        <v>25.09</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>1193</v>
+        <v>1377</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
@@ -1204,22 +1204,22 @@
         <v>24</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>106767</v>
+        <v>107163</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>103494</v>
+        <v>103956</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>541070</v>
+        <v>805933</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>240217</v>
+        <v>329237</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>5.07</v>
+        <v>7.52</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>675</v>
+        <v>753</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
@@ -1233,22 +1233,22 @@
         <v>14</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>100021</v>
+        <v>100325</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>89949</v>
+        <v>90504</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>1234913</v>
+        <v>2024512</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>264113</v>
+        <v>387792</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>12.35</v>
+        <v>20.18</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>1073</v>
+        <v>1215</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
@@ -1262,22 +1262,22 @@
         <v>12</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>87554</v>
+        <v>87348</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>83537</v>
+        <v>84066</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>983466</v>
+        <v>1658163</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>192824</v>
+        <v>278292</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>11.23</v>
+        <v>18.98</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>810</v>
+        <v>934</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
@@ -1291,22 +1291,22 @@
         <v>28</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>85851</v>
+        <v>86387</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>79734</v>
+        <v>80310</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>715830</v>
+        <v>1212237</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>207124</v>
+        <v>326578</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>8.34</v>
+        <v>14.03</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>690</v>
+        <v>789</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
@@ -1320,22 +1320,22 @@
         <v>14</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>65427</v>
+        <v>66054</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>56904</v>
+        <v>57412</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>1074500</v>
+        <v>1807785</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>165981</v>
+        <v>243746</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>16.42</v>
+        <v>27.37</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>1206</v>
+        <v>1373</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
@@ -1349,22 +1349,22 @@
         <v>31</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>60250</v>
+        <v>59763</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>57673</v>
+        <v>57603</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>639745</v>
+        <v>1049004</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>208473</v>
+        <v>298884</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>10.62</v>
+        <v>17.55</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>416</v>
+        <v>490</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
@@ -1378,22 +1378,22 @@
         <v>24</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>52648</v>
+        <v>52965</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>48850</v>
+        <v>49136</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>464510</v>
+        <v>727707</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>109138</v>
+        <v>152866</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>8.82</v>
+        <v>13.74</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>660</v>
+        <v>738</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
@@ -1407,22 +1407,22 @@
         <v>14</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>50708</v>
+        <v>51054</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>44581</v>
+        <v>44883</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>891475</v>
+        <v>1469167</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>122778</v>
+        <v>175401</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>17.58</v>
+        <v>28.78</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>1142</v>
+        <v>1291</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
@@ -1436,22 +1436,22 @@
         <v>31</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>46706</v>
+        <v>46677</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>42514</v>
+        <v>42505</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>373780</v>
+        <v>622925</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>76607</v>
+        <v>118916</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>8</v>
+        <v>13.35</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>535</v>
+        <v>601</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
@@ -1465,22 +1465,22 @@
         <v>14</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>45079</v>
+        <v>45276</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>39938</v>
+        <v>40147</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>710007</v>
+        <v>1164854</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>99393</v>
+        <v>143330</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>15.75</v>
+        <v>25.73</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>1036</v>
+        <v>1159</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
@@ -1494,22 +1494,22 @@
         <v>12</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>37213</v>
+        <v>37460</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>35123</v>
+        <v>35518</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>381558</v>
+        <v>622606</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>61439</v>
+        <v>87452</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>10.25</v>
+        <v>16.62</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>615</v>
+        <v>688</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
@@ -1523,22 +1523,22 @@
         <v>14</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>36784</v>
+        <v>37116</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>32234</v>
+        <v>32500</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>581123</v>
+        <v>943479</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>71989</v>
+        <v>101627</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>15.8</v>
+        <v>25.42</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>942</v>
+        <v>1067</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
@@ -1552,22 +1552,22 @@
         <v>12</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>35073</v>
+        <v>34959</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>34308</v>
+        <v>34274</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>139404</v>
+        <v>218615</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>61498</v>
+        <v>89531</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>3.97</v>
+        <v>6.25</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>284</v>
+        <v>318</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
@@ -1581,22 +1581,22 @@
         <v>12</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>34858</v>
+        <v>34809</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>32904</v>
+        <v>32842</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>299912</v>
+        <v>506903</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>70182</v>
+        <v>104566</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>8.6</v>
+        <v>14.56</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>415</v>
+        <v>504</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
@@ -1610,22 +1610,22 @@
         <v>14</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>30586</v>
+        <v>30871</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>26949</v>
+        <v>27149</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>518245</v>
+        <v>842491</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>69697</v>
+        <v>100611</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>16.94</v>
+        <v>27.29</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>900</v>
+        <v>1014</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
@@ -1639,22 +1639,22 @@
         <v>14</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>28259</v>
+        <v>28600</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>24709</v>
+        <v>24895</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>420972</v>
+        <v>679456</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>53146</v>
+        <v>74971</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>14.9</v>
+        <v>23.76</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>783</v>
+        <v>877</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
@@ -1668,22 +1668,22 @@
         <v>14</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>27852</v>
+        <v>27991</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>24595</v>
+        <v>24752</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>350873</v>
+        <v>564045</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>53461</v>
+        <v>78702</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>12.6</v>
+        <v>20.15</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>599</v>
+        <v>685</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
@@ -1697,22 +1697,22 @@
         <v>44</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>26864</v>
+        <v>27257</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>23843</v>
+        <v>24074</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>285853</v>
+        <v>482434</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>56999</v>
+        <v>86737</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>10.64</v>
+        <v>17.7</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>567</v>
+        <v>652</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
@@ -1726,22 +1726,22 @@
         <v>28</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>26781</v>
+        <v>26951</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>24308</v>
+        <v>24491</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>228388</v>
+        <v>366306</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>42579</v>
+        <v>64496</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>8.53</v>
+        <v>13.59</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>536</v>
+        <v>598</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
@@ -1755,22 +1755,22 @@
         <v>24</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>26100</v>
+        <v>26172</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>24461</v>
+        <v>24631</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>251326</v>
+        <v>394871</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>45903</v>
+        <v>63136</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>9.63</v>
+        <v>15.09</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>554</v>
+        <v>625</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
@@ -1784,22 +1784,22 @@
         <v>14</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>25235</v>
+        <v>25662</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>22179</v>
+        <v>22391</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>358696</v>
+        <v>582575</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>49786</v>
+        <v>72459</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>14.21</v>
+        <v>22.7</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>747</v>
+        <v>843</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
@@ -1813,22 +1813,22 @@
         <v>31</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>23855</v>
+        <v>23817</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>22610</v>
+        <v>22729</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>375620</v>
+        <v>611608</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>65606</v>
+        <v>96047</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>15.75</v>
+        <v>25.68</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>478</v>
+        <v>568</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
@@ -1839,25 +1839,25 @@
         <v>49</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>23571</v>
+        <v>23802</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>21608</v>
+        <v>20657</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>428159</v>
+        <v>532533</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>49101</v>
+        <v>59094</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>18.16</v>
+        <v>22.37</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>687</v>
+        <v>914</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
@@ -1868,25 +1868,25 @@
         <v>50</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>23389</v>
+        <v>23775</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>20388</v>
+        <v>21705</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>329647</v>
+        <v>723525</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>40302</v>
+        <v>70333</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>14.09</v>
+        <v>30.43</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>821</v>
+        <v>800</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
@@ -1900,22 +1900,22 @@
         <v>12</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>23331</v>
+        <v>23555</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>20991</v>
+        <v>21179</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>437185</v>
+        <v>731601</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>46914</v>
+        <v>64307</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>18.74</v>
+        <v>31.06</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>697</v>
+        <v>806</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
@@ -1926,25 +1926,25 @@
         <v>52</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>22354</v>
+        <v>22489</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>21171</v>
+        <v>20011</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>249745</v>
+        <v>525405</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>58894</v>
+        <v>66116</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>11.17</v>
+        <v>23.36</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>349</v>
+        <v>847</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
@@ -1952,28 +1952,28 @@
         <v>37</v>
       </c>
       <c r="B38" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="0" t="s">
-        <v>14</v>
-      </c>
       <c r="D38" s="0" t="n">
-        <v>22318</v>
+        <v>22340</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>19851</v>
+        <v>21311</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>330788</v>
+        <v>402489</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>45968</v>
+        <v>90762</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>14.82</v>
+        <v>18.02</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>756</v>
+        <v>409</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
@@ -1987,22 +1987,22 @@
         <v>14</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>21039</v>
+        <v>21335</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>18016</v>
+        <v>18216</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>277008</v>
+        <v>433548</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>38161</v>
+        <v>54839</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>13.17</v>
+        <v>20.32</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>610</v>
+        <v>685</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
@@ -2016,22 +2016,22 @@
         <v>12</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>20926</v>
+        <v>20805</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>19756</v>
+        <v>19767</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>237931</v>
+        <v>392615</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>59608</v>
+        <v>89537</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>11.37</v>
+        <v>18.87</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>353</v>
+        <v>428</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="41">
@@ -2045,22 +2045,22 @@
         <v>12</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>19187</v>
+        <v>19498</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>18127</v>
+        <v>18449</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>148034</v>
+        <v>255512</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>26415</v>
+        <v>41495</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>7.72</v>
+        <v>13.1</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>396</v>
+        <v>452</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="42">
@@ -2074,22 +2074,22 @@
         <v>22</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>17698</v>
+        <v>17911</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>15051</v>
+        <v>15137</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>227269</v>
+        <v>376020</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>29520</v>
+        <v>42980</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>12.84</v>
+        <v>20.99</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>633</v>
+        <v>716</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="43">
@@ -2103,22 +2103,22 @@
         <v>24</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>16476</v>
+        <v>16858</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>15203</v>
+        <v>15491</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>137337</v>
+        <v>195606</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>25267</v>
+        <v>34131</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>8.34</v>
+        <v>11.6</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>364</v>
+        <v>419</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44">
@@ -2132,22 +2132,22 @@
         <v>14</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>16165</v>
+        <v>16568</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>13792</v>
+        <v>13950</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>247988</v>
+        <v>395150</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>26756</v>
+        <v>37622</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>15.34</v>
+        <v>23.85</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>628</v>
+        <v>711</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45">
@@ -2161,22 +2161,22 @@
         <v>28</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>15409</v>
+        <v>15562</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>14061</v>
+        <v>14199</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>158657</v>
+        <v>247666</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>24425</v>
+        <v>37246</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>10.3</v>
+        <v>15.91</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>510</v>
+        <v>568</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="46">
@@ -2190,22 +2190,22 @@
         <v>28</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>15376</v>
+        <v>15442</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>14355</v>
+        <v>14494</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>190711</v>
+        <v>300390</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>34428</v>
+        <v>50373</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>12.4</v>
+        <v>19.45</v>
       </c>
       <c r="I46" s="0" t="n">
-        <v>451</v>
+        <v>515</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="47">
@@ -2219,22 +2219,22 @@
         <v>24</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>14566</v>
+        <v>14784</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>14047</v>
+        <v>14251</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>91692</v>
+        <v>122657</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>33697</v>
+        <v>48420</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>6.29</v>
+        <v>8.3</v>
       </c>
       <c r="I47" s="0" t="n">
-        <v>323</v>
+        <v>358</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="48">
@@ -2248,22 +2248,22 @@
         <v>28</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>13547</v>
+        <v>13579</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>12625</v>
+        <v>12705</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>112263</v>
+        <v>168229</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>18787</v>
+        <v>27100</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>8.29</v>
+        <v>12.39</v>
       </c>
       <c r="I48" s="0" t="n">
-        <v>356</v>
+        <v>405</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="49">
@@ -2277,22 +2277,22 @@
         <v>24</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>12433</v>
+        <v>12541</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>11302</v>
+        <v>11393</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>155929</v>
+        <v>239443</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>21847</v>
+        <v>30878</v>
       </c>
       <c r="H49" s="0" t="n">
-        <v>12.54</v>
+        <v>19.09</v>
       </c>
       <c r="I49" s="0" t="n">
-        <v>540</v>
+        <v>599</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="50">
@@ -2306,22 +2306,22 @@
         <v>44</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>10101</v>
+        <v>10145</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>9203</v>
+        <v>9236</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>85522</v>
+        <v>135872</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>17949</v>
+        <v>27495</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>8.47</v>
+        <v>13.39</v>
       </c>
       <c r="I50" s="0" t="n">
-        <v>260</v>
+        <v>303</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="51">
@@ -2335,22 +2335,22 @@
         <v>31</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>9320</v>
+        <v>9357</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>9144</v>
+        <v>9206</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>66445</v>
+        <v>96149</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>17858</v>
+        <v>27904</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>7.13</v>
+        <v>10.28</v>
       </c>
       <c r="I51" s="0" t="n">
-        <v>155</v>
+        <v>199</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="52">
@@ -2361,25 +2361,25 @@
         <v>68</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>8905</v>
+        <v>9036</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>8157</v>
+        <v>8512</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>71446</v>
+        <v>163810</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>10996</v>
+        <v>28371</v>
       </c>
       <c r="H52" s="0" t="n">
-        <v>8.02</v>
+        <v>18.13</v>
       </c>
       <c r="I52" s="0" t="n">
-        <v>235</v>
+        <v>316</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="53">
@@ -2390,25 +2390,25 @@
         <v>69</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>8872</v>
+        <v>8839</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>8309</v>
+        <v>8432</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>108513</v>
+        <v>98041</v>
       </c>
       <c r="G53" s="0" t="n">
-        <v>21006</v>
+        <v>18674</v>
       </c>
       <c r="H53" s="0" t="n">
-        <v>12.23</v>
+        <v>11.09</v>
       </c>
       <c r="I53" s="0" t="n">
-        <v>269</v>
+        <v>355</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="54">
@@ -2419,25 +2419,25 @@
         <v>70</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>8831</v>
+        <v>8521</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>8406</v>
+        <v>7786</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>75830</v>
+        <v>102939</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>13555</v>
+        <v>16173</v>
       </c>
       <c r="H54" s="0" t="n">
-        <v>8.59</v>
+        <v>12.08</v>
       </c>
       <c r="I54" s="0" t="n">
-        <v>331</v>
+        <v>271</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="55">
@@ -2448,25 +2448,25 @@
         <v>71</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>8355</v>
+        <v>8489</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>7774</v>
+        <v>7950</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>94894</v>
+        <v>91616</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>12322</v>
+        <v>18939</v>
       </c>
       <c r="H55" s="0" t="n">
-        <v>11.36</v>
+        <v>10.79</v>
       </c>
       <c r="I55" s="0" t="n">
-        <v>307</v>
+        <v>239</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="56">
@@ -2477,25 +2477,25 @@
         <v>72</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>8056</v>
+        <v>8367</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>7500</v>
+        <v>7820</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>68234</v>
+        <v>129431</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>12029</v>
+        <v>17758</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>8.47</v>
+        <v>15.47</v>
       </c>
       <c r="I56" s="0" t="n">
-        <v>213</v>
+        <v>350</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="57">
@@ -2509,22 +2509,22 @@
         <v>24</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>7992</v>
+        <v>8075</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>7413</v>
+        <v>7454</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>85814</v>
+        <v>114002</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>10671</v>
+        <v>15611</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>10.74</v>
+        <v>14.12</v>
       </c>
       <c r="I57" s="0" t="n">
-        <v>337</v>
+        <v>380</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="58">
@@ -2538,22 +2538,22 @@
         <v>44</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>7678</v>
+        <v>7701</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>7077</v>
+        <v>7110</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>65152</v>
+        <v>92436</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>12828</v>
+        <v>19901</v>
       </c>
       <c r="H58" s="0" t="n">
-        <v>8.49</v>
+        <v>12</v>
       </c>
       <c r="I58" s="0" t="n">
-        <v>232</v>
+        <v>261</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="59">
@@ -2567,22 +2567,22 @@
         <v>31</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>7313</v>
+        <v>7466</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>6663</v>
+        <v>6765</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>89311</v>
+        <v>138127</v>
       </c>
       <c r="G59" s="0" t="n">
-        <v>9793</v>
+        <v>14404</v>
       </c>
       <c r="H59" s="0" t="n">
-        <v>12.21</v>
+        <v>18.5</v>
       </c>
       <c r="I59" s="0" t="n">
-        <v>268</v>
+        <v>329</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="60">
@@ -2596,22 +2596,22 @@
         <v>24</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>6687</v>
+        <v>6680</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>6244</v>
+        <v>6246</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>95047</v>
+        <v>132893</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>9655</v>
+        <v>13552</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>14.21</v>
+        <v>19.89</v>
       </c>
       <c r="I60" s="0" t="n">
-        <v>361</v>
+        <v>409</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="61">
@@ -2622,25 +2622,25 @@
         <v>77</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>5867</v>
+        <v>5958</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>5455</v>
+        <v>5513</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>65687</v>
+        <v>101742</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>7893</v>
+        <v>19472</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>11.2</v>
+        <v>17.08</v>
       </c>
       <c r="I61" s="0" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="62">
@@ -2651,25 +2651,25 @@
         <v>78</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>5818</v>
+        <v>5933</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>5380</v>
+        <v>5535</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>66809</v>
+        <v>81833</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>12685</v>
+        <v>11091</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>11.48</v>
+        <v>13.79</v>
       </c>
       <c r="I62" s="0" t="n">
-        <v>252</v>
+        <v>347</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="63">
@@ -2683,22 +2683,22 @@
         <v>28</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>4712</v>
+        <v>4727</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>4512</v>
+        <v>4539</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>43844</v>
+        <v>55022</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>6503</v>
+        <v>9180</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>9.3</v>
+        <v>11.64</v>
       </c>
       <c r="I63" s="0" t="n">
-        <v>197</v>
+        <v>223</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="64">
@@ -2712,22 +2712,22 @@
         <v>31</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>4488</v>
+        <v>4508</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>4246</v>
+        <v>4296</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>52606</v>
+        <v>71355</v>
       </c>
       <c r="G64" s="0" t="n">
-        <v>7767</v>
+        <v>11543</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>11.72</v>
+        <v>15.83</v>
       </c>
       <c r="I64" s="0" t="n">
-        <v>219</v>
+        <v>251</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="65">
@@ -2741,22 +2741,22 @@
         <v>12</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>4273</v>
+        <v>4310</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>4053</v>
+        <v>3959</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>32094</v>
+        <v>58465</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>5457</v>
+        <v>6959</v>
       </c>
       <c r="H65" s="0" t="n">
-        <v>7.51</v>
+        <v>13.56</v>
       </c>
       <c r="I65" s="0" t="n">
-        <v>138</v>
+        <v>325</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="66">
@@ -2767,25 +2767,25 @@
         <v>82</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>4199</v>
+        <v>4273</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>3927</v>
+        <v>4082</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>52643</v>
+        <v>35587</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>6627</v>
+        <v>7737</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>12.54</v>
+        <v>8.33</v>
       </c>
       <c r="I66" s="0" t="n">
-        <v>265</v>
+        <v>163</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="67">
@@ -2796,25 +2796,25 @@
         <v>83</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>4066</v>
+        <v>4215</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>3723</v>
+        <v>3941</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>75260</v>
+        <v>80169</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>7473</v>
+        <v>9085</v>
       </c>
       <c r="H67" s="0" t="n">
-        <v>18.51</v>
+        <v>19.02</v>
       </c>
       <c r="I67" s="0" t="n">
-        <v>238</v>
+        <v>298</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="68">
@@ -2825,25 +2825,25 @@
         <v>84</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>3989</v>
+        <v>4084</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>3636</v>
+        <v>3736</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>44928</v>
+        <v>106101</v>
       </c>
       <c r="G68" s="0" t="n">
-        <v>4489</v>
+        <v>9721</v>
       </c>
       <c r="H68" s="0" t="n">
-        <v>11.26</v>
+        <v>25.98</v>
       </c>
       <c r="I68" s="0" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="69">
@@ -2854,25 +2854,25 @@
         <v>85</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>3712</v>
+        <v>3739</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>3490</v>
+        <v>3404</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>51312</v>
+        <v>76128</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>10179</v>
+        <v>5921</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>13.82</v>
+        <v>20.36</v>
       </c>
       <c r="I69" s="0" t="n">
-        <v>193</v>
+        <v>295</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="70">
@@ -2883,25 +2883,25 @@
         <v>86</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>3664</v>
+        <v>3708</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>3316</v>
+        <v>3523</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>49863</v>
+        <v>75409</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>4020</v>
+        <v>18752</v>
       </c>
       <c r="H70" s="0" t="n">
-        <v>13.61</v>
+        <v>20.34</v>
       </c>
       <c r="I70" s="0" t="n">
-        <v>264</v>
+        <v>226</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="71">
@@ -2915,22 +2915,22 @@
         <v>28</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>3557</v>
+        <v>3606</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>3207</v>
+        <v>3261</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>40688</v>
+        <v>50552</v>
       </c>
       <c r="G71" s="0" t="n">
-        <v>4701</v>
+        <v>7273</v>
       </c>
       <c r="H71" s="0" t="n">
-        <v>11.44</v>
+        <v>14.02</v>
       </c>
       <c r="I71" s="0" t="n">
-        <v>288</v>
+        <v>315</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="72">
@@ -2944,22 +2944,22 @@
         <v>24</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>3553</v>
+        <v>3574</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>3191</v>
+        <v>3241</v>
       </c>
       <c r="F72" s="0" t="n">
-        <v>69371</v>
+        <v>91589</v>
       </c>
       <c r="G72" s="0" t="n">
-        <v>6833</v>
+        <v>9334</v>
       </c>
       <c r="H72" s="0" t="n">
-        <v>19.52</v>
+        <v>25.63</v>
       </c>
       <c r="I72" s="0" t="n">
-        <v>346</v>
+        <v>383</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="73">
@@ -2973,22 +2973,22 @@
         <v>44</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>3456</v>
+        <v>3444</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>3081</v>
+        <v>3093</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>51333</v>
+        <v>69509</v>
       </c>
       <c r="G73" s="0" t="n">
-        <v>6722</v>
+        <v>10147</v>
       </c>
       <c r="H73" s="0" t="n">
-        <v>14.85</v>
+        <v>20.18</v>
       </c>
       <c r="I73" s="0" t="n">
-        <v>310</v>
+        <v>346</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="74">
@@ -3002,22 +3002,22 @@
         <v>14</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>3121</v>
+        <v>3160</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>2761</v>
+        <v>2773</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>44052</v>
+        <v>65884</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>4665</v>
+        <v>6566</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>14.11</v>
+        <v>20.85</v>
       </c>
       <c r="I74" s="0" t="n">
-        <v>254</v>
+        <v>303</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="75">
@@ -3031,22 +3031,22 @@
         <v>44</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>3101</v>
+        <v>3094</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>2821</v>
+        <v>2843</v>
       </c>
       <c r="F75" s="0" t="n">
-        <v>43105</v>
+        <v>57819</v>
       </c>
       <c r="G75" s="0" t="n">
-        <v>5164</v>
+        <v>8953</v>
       </c>
       <c r="H75" s="0" t="n">
-        <v>13.9</v>
+        <v>18.69</v>
       </c>
       <c r="I75" s="0" t="n">
-        <v>191</v>
+        <v>222</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="76">
@@ -3060,22 +3060,22 @@
         <v>12</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>2625</v>
+        <v>2591</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>2492</v>
+        <v>2471</v>
       </c>
       <c r="F76" s="0" t="n">
-        <v>42470</v>
+        <v>72139</v>
       </c>
       <c r="G76" s="0" t="n">
-        <v>3358</v>
+        <v>4710</v>
       </c>
       <c r="H76" s="0" t="n">
-        <v>16.18</v>
+        <v>27.84</v>
       </c>
       <c r="I76" s="0" t="n">
-        <v>178</v>
+        <v>224</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="77">
@@ -3089,22 +3089,22 @@
         <v>24</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>2513</v>
+        <v>2498</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>2332</v>
+        <v>2321</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>31459</v>
+        <v>45178</v>
       </c>
       <c r="G77" s="0" t="n">
-        <v>3513</v>
+        <v>4894</v>
       </c>
       <c r="H77" s="0" t="n">
-        <v>12.52</v>
+        <v>18.09</v>
       </c>
       <c r="I77" s="0" t="n">
-        <v>202</v>
+        <v>225</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="78">
@@ -3118,22 +3118,22 @@
         <v>12</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>2462</v>
+        <v>2468</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>2275</v>
+        <v>2288</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>33202</v>
+        <v>39879</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>3042</v>
+        <v>4474</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>13.49</v>
+        <v>16.16</v>
       </c>
       <c r="I78" s="0" t="n">
-        <v>225</v>
+        <v>251</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="79">
@@ -3147,22 +3147,22 @@
         <v>24</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>2440</v>
+        <v>2430</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>2350</v>
+        <v>2356</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>28670</v>
+        <v>35673</v>
       </c>
       <c r="G79" s="0" t="n">
-        <v>4630</v>
+        <v>5823</v>
       </c>
       <c r="H79" s="0" t="n">
-        <v>11.75</v>
+        <v>14.68</v>
       </c>
       <c r="I79" s="0" t="n">
-        <v>213</v>
+        <v>232</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="80">
@@ -3176,22 +3176,22 @@
         <v>14</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>2393</v>
+        <v>2401</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>2096</v>
+        <v>2099</v>
       </c>
       <c r="F80" s="0" t="n">
-        <v>48401</v>
+        <v>56180</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>3193</v>
+        <v>4296</v>
       </c>
       <c r="H80" s="0" t="n">
-        <v>20.23</v>
+        <v>23.4</v>
       </c>
       <c r="I80" s="0" t="n">
-        <v>243</v>
+        <v>274</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="81">
@@ -3205,22 +3205,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>2124</v>
+        <v>2149</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>1958</v>
+        <v>1985</v>
       </c>
       <c r="F81" s="0" t="n">
-        <v>10091</v>
+        <v>17173</v>
       </c>
       <c r="G81" s="0" t="n">
-        <v>1758</v>
+        <v>2738</v>
       </c>
       <c r="H81" s="0" t="n">
-        <v>4.75</v>
+        <v>7.99</v>
       </c>
       <c r="I81" s="0" t="n">
-        <v>200</v>
+        <v>223</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="82">
@@ -3234,22 +3234,22 @@
         <v>31</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>2065</v>
+        <v>2052</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>1851</v>
+        <v>1821</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>19697</v>
+        <v>34898</v>
       </c>
       <c r="G82" s="0" t="n">
-        <v>2367</v>
+        <v>3296</v>
       </c>
       <c r="H82" s="0" t="n">
-        <v>9.54</v>
+        <v>17.01</v>
       </c>
       <c r="I82" s="0" t="n">
-        <v>176</v>
+        <v>217</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="83">
@@ -3263,22 +3263,22 @@
         <v>31</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>2009</v>
+        <v>1997</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>29228</v>
+        <v>31344</v>
       </c>
       <c r="G83" s="0" t="n">
-        <v>2090</v>
+        <v>2852</v>
       </c>
       <c r="H83" s="0" t="n">
-        <v>14.55</v>
+        <v>15.7</v>
       </c>
       <c r="I83" s="0" t="n">
-        <v>195</v>
+        <v>220</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="84">
@@ -3292,22 +3292,22 @@
         <v>24</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>1972</v>
+        <v>1956</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>1756</v>
+        <v>1760</v>
       </c>
       <c r="F84" s="0" t="n">
-        <v>38800</v>
+        <v>49613</v>
       </c>
       <c r="G84" s="0" t="n">
-        <v>3163</v>
+        <v>4304</v>
       </c>
       <c r="H84" s="0" t="n">
-        <v>19.68</v>
+        <v>25.36</v>
       </c>
       <c r="I84" s="0" t="n">
-        <v>219</v>
+        <v>248</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="85">
@@ -3321,22 +3321,22 @@
         <v>14</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>1942</v>
+        <v>1949</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>1650</v>
+        <v>1663</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>45274</v>
+        <v>50309</v>
       </c>
       <c r="G85" s="0" t="n">
-        <v>2998</v>
+        <v>4252</v>
       </c>
       <c r="H85" s="0" t="n">
-        <v>23.31</v>
+        <v>25.81</v>
       </c>
       <c r="I85" s="0" t="n">
-        <v>370</v>
+        <v>393</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="86">
@@ -3350,22 +3350,22 @@
         <v>44</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>1902</v>
+        <v>1895</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>1702</v>
+        <v>1707</v>
       </c>
       <c r="F86" s="0" t="n">
-        <v>21911</v>
+        <v>36272</v>
       </c>
       <c r="G86" s="0" t="n">
-        <v>3178</v>
+        <v>5078</v>
       </c>
       <c r="H86" s="0" t="n">
-        <v>11.52</v>
+        <v>19.14</v>
       </c>
       <c r="I86" s="0" t="n">
-        <v>209</v>
+        <v>236</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="87">
@@ -3379,22 +3379,22 @@
         <v>28</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>1875</v>
+        <v>1890</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>1694</v>
+        <v>1706</v>
       </c>
       <c r="F87" s="0" t="n">
-        <v>20804</v>
+        <v>36074</v>
       </c>
       <c r="G87" s="0" t="n">
-        <v>2275</v>
+        <v>3390</v>
       </c>
       <c r="H87" s="0" t="n">
-        <v>11.1</v>
+        <v>19.09</v>
       </c>
       <c r="I87" s="0" t="n">
-        <v>222</v>
+        <v>243</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="88">
@@ -3408,22 +3408,22 @@
         <v>44</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>1784</v>
+        <v>1788</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>1611</v>
+        <v>1622</v>
       </c>
       <c r="F88" s="0" t="n">
-        <v>27452</v>
+        <v>32283</v>
       </c>
       <c r="G88" s="0" t="n">
-        <v>3051</v>
+        <v>4751</v>
       </c>
       <c r="H88" s="0" t="n">
-        <v>15.39</v>
+        <v>18.06</v>
       </c>
       <c r="I88" s="0" t="n">
-        <v>205</v>
+        <v>228</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="89">
@@ -3437,22 +3437,22 @@
         <v>44</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>1768</v>
+        <v>1731</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>1637</v>
+        <v>1626</v>
       </c>
       <c r="F89" s="0" t="n">
-        <v>28228</v>
+        <v>29968</v>
       </c>
       <c r="G89" s="0" t="n">
-        <v>3383</v>
+        <v>5112</v>
       </c>
       <c r="H89" s="0" t="n">
-        <v>15.97</v>
+        <v>17.31</v>
       </c>
       <c r="I89" s="0" t="n">
-        <v>167</v>
+        <v>186</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="90">
@@ -3466,22 +3466,22 @@
         <v>12</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>1685</v>
+        <v>1687</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>1520</v>
+        <v>1533</v>
       </c>
       <c r="F90" s="0" t="n">
-        <v>27861</v>
+        <v>30001</v>
       </c>
       <c r="G90" s="0" t="n">
-        <v>2806</v>
+        <v>4182</v>
       </c>
       <c r="H90" s="0" t="n">
-        <v>16.53</v>
+        <v>17.78</v>
       </c>
       <c r="I90" s="0" t="n">
-        <v>175</v>
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="91">
@@ -3495,22 +3495,22 @@
         <v>28</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>1636</v>
+        <v>1651</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>1466</v>
+        <v>1482</v>
       </c>
       <c r="F91" s="0" t="n">
-        <v>12120</v>
+        <v>19316</v>
       </c>
       <c r="G91" s="0" t="n">
-        <v>1055</v>
+        <v>1394</v>
       </c>
       <c r="H91" s="0" t="n">
-        <v>7.41</v>
+        <v>11.7</v>
       </c>
       <c r="I91" s="0" t="n">
-        <v>254</v>
+        <v>279</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="92">
@@ -3524,22 +3524,22 @@
         <v>24</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>1508</v>
+        <v>1538</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>1333</v>
+        <v>1354</v>
       </c>
       <c r="F92" s="0" t="n">
-        <v>15370</v>
+        <v>20126</v>
       </c>
       <c r="G92" s="0" t="n">
-        <v>1298</v>
+        <v>1857</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>10.19</v>
+        <v>13.09</v>
       </c>
       <c r="I92" s="0" t="n">
-        <v>128</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="93">
@@ -3553,22 +3553,22 @@
         <v>24</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>1383</v>
+        <v>1391</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>1337</v>
+        <v>1351</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>16987</v>
+        <v>20024</v>
       </c>
       <c r="G93" s="0" t="n">
-        <v>2665</v>
+        <v>3775</v>
       </c>
       <c r="H93" s="0" t="n">
-        <v>12.28</v>
+        <v>14.4</v>
       </c>
       <c r="I93" s="0" t="n">
-        <v>138</v>
+        <v>153</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="94">
@@ -3582,22 +3582,22 @@
         <v>28</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>1260</v>
+        <v>1239</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>1153</v>
+        <v>1145</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>22068</v>
+        <v>20047</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>1310</v>
+        <v>1865</v>
       </c>
       <c r="H94" s="0" t="n">
-        <v>17.51</v>
+        <v>16.18</v>
       </c>
       <c r="I94" s="0" t="n">
-        <v>214</v>
+        <v>235</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="95">
@@ -3611,22 +3611,22 @@
         <v>24</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>1245</v>
+        <v>1231</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>1186</v>
+        <v>1192</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>29261</v>
+        <v>26262</v>
       </c>
       <c r="G95" s="0" t="n">
-        <v>3135</v>
+        <v>4105</v>
       </c>
       <c r="H95" s="0" t="n">
-        <v>23.5</v>
+        <v>21.33</v>
       </c>
       <c r="I95" s="0" t="n">
-        <v>214</v>
+        <v>235</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="96">
@@ -3640,22 +3640,22 @@
         <v>44</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>1082</v>
+        <v>1102</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="F96" s="0" t="n">
-        <v>8790</v>
+        <v>15138</v>
       </c>
       <c r="G96" s="0" t="n">
-        <v>1131</v>
+        <v>1770</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>8.12</v>
+        <v>13.74</v>
       </c>
       <c r="I96" s="0" t="n">
-        <v>164</v>
+        <v>187</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="97">
@@ -3669,22 +3669,22 @@
         <v>24</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>1062</v>
+        <v>1067</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>964</v>
+        <v>972</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>14638</v>
+        <v>16628</v>
       </c>
       <c r="G97" s="0" t="n">
-        <v>693</v>
+        <v>937</v>
       </c>
       <c r="H97" s="0" t="n">
-        <v>13.78</v>
+        <v>15.58</v>
       </c>
       <c r="I97" s="0" t="n">
-        <v>152</v>
+        <v>170</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="98">
@@ -3698,22 +3698,22 @@
         <v>14</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>1043</v>
+        <v>1052</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="F98" s="0" t="n">
-        <v>18697</v>
+        <v>23895</v>
       </c>
       <c r="G98" s="0" t="n">
-        <v>1139</v>
+        <v>1462</v>
       </c>
       <c r="H98" s="0" t="n">
-        <v>17.93</v>
+        <v>22.71</v>
       </c>
       <c r="I98" s="0" t="n">
-        <v>165</v>
+        <v>185</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="99">
@@ -3727,22 +3727,22 @@
         <v>44</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>1036</v>
+        <v>1014</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>958</v>
+        <v>942</v>
       </c>
       <c r="F99" s="0" t="n">
-        <v>7945</v>
+        <v>14034</v>
       </c>
       <c r="G99" s="0" t="n">
-        <v>702</v>
+        <v>1001</v>
       </c>
       <c r="H99" s="0" t="n">
-        <v>7.67</v>
+        <v>13.84</v>
       </c>
       <c r="I99" s="0" t="n">
-        <v>119</v>
+        <v>140</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="100">
@@ -3753,25 +3753,25 @@
         <v>116</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>890</v>
+        <v>923</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>818</v>
+        <v>801</v>
       </c>
       <c r="F100" s="0" t="n">
-        <v>9226</v>
+        <v>18074</v>
       </c>
       <c r="G100" s="0" t="n">
-        <v>819</v>
+        <v>939</v>
       </c>
       <c r="H100" s="0" t="n">
-        <v>10.37</v>
+        <v>19.58</v>
       </c>
       <c r="I100" s="0" t="n">
-        <v>146</v>
+        <v>281</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="101">
@@ -3782,25 +3782,25 @@
         <v>117</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="E101" s="0" t="n">
-        <v>774</v>
+        <v>819</v>
       </c>
       <c r="F101" s="0" t="n">
-        <v>10850</v>
+        <v>13758</v>
       </c>
       <c r="G101" s="0" t="n">
-        <v>598</v>
+        <v>1239</v>
       </c>
       <c r="H101" s="0" t="n">
-        <v>12.32</v>
+        <v>15.6</v>
       </c>
       <c r="I101" s="0" t="n">
-        <v>253</v>
+        <v>159</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="102">
@@ -3814,22 +3814,22 @@
         <v>31</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>858</v>
+        <v>866</v>
       </c>
       <c r="E102" s="0" t="n">
-        <v>810</v>
+        <v>824</v>
       </c>
       <c r="F102" s="0" t="n">
-        <v>20358</v>
+        <v>17129</v>
       </c>
       <c r="G102" s="0" t="n">
-        <v>1350</v>
+        <v>1865</v>
       </c>
       <c r="H102" s="0" t="n">
-        <v>23.73</v>
+        <v>19.78</v>
       </c>
       <c r="I102" s="0" t="n">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="103">
@@ -3843,22 +3843,22 @@
         <v>44</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="E103" s="0" t="n">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="F103" s="0" t="n">
-        <v>9117</v>
+        <v>15887</v>
       </c>
       <c r="G103" s="0" t="n">
-        <v>1368</v>
+        <v>2045</v>
       </c>
       <c r="H103" s="0" t="n">
-        <v>10.8</v>
+        <v>18.76</v>
       </c>
       <c r="I103" s="0" t="n">
-        <v>166</v>
+        <v>186</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="104">
@@ -3872,22 +3872,22 @@
         <v>44</v>
       </c>
       <c r="D104" s="0" t="n">
-        <v>814</v>
+        <v>832</v>
       </c>
       <c r="E104" s="0" t="n">
-        <v>689</v>
+        <v>696</v>
       </c>
       <c r="F104" s="0" t="n">
-        <v>8465</v>
+        <v>11733</v>
       </c>
       <c r="G104" s="0" t="n">
-        <v>938</v>
+        <v>1350</v>
       </c>
       <c r="H104" s="0" t="n">
-        <v>10.4</v>
+        <v>14.1</v>
       </c>
       <c r="I104" s="0" t="n">
-        <v>127</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="105">
@@ -3901,22 +3901,22 @@
         <v>31</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="E105" s="0" t="n">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="F105" s="0" t="n">
-        <v>16463</v>
+        <v>11376</v>
       </c>
       <c r="G105" s="0" t="n">
-        <v>571</v>
+        <v>684</v>
       </c>
       <c r="H105" s="0" t="n">
-        <v>22.22</v>
+        <v>15.48</v>
       </c>
       <c r="I105" s="0" t="n">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="106">
@@ -3927,25 +3927,25 @@
         <v>122</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>674</v>
+        <v>660</v>
       </c>
       <c r="E106" s="0" t="n">
-        <v>600</v>
+        <v>639</v>
       </c>
       <c r="F106" s="0" t="n">
-        <v>18545</v>
+        <v>8253</v>
       </c>
       <c r="G106" s="0" t="n">
-        <v>1179</v>
+        <v>1733</v>
       </c>
       <c r="H106" s="0" t="n">
-        <v>27.51</v>
+        <v>12.5</v>
       </c>
       <c r="I106" s="0" t="n">
-        <v>242</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="107">
@@ -3956,25 +3956,25 @@
         <v>123</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D107" s="0" t="n">
         <v>660</v>
       </c>
       <c r="E107" s="0" t="n">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="F107" s="0" t="n">
-        <v>5826</v>
+        <v>15258</v>
       </c>
       <c r="G107" s="0" t="n">
-        <v>849</v>
+        <v>1432</v>
       </c>
       <c r="H107" s="0" t="n">
-        <v>8.83</v>
+        <v>23.12</v>
       </c>
       <c r="I107" s="0" t="n">
-        <v>126</v>
+        <v>260</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="108">
@@ -3985,25 +3985,25 @@
         <v>124</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D108" s="0" t="n">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="E108" s="0" t="n">
-        <v>635</v>
+        <v>601</v>
       </c>
       <c r="F108" s="0" t="n">
-        <v>4897</v>
+        <v>9943</v>
       </c>
       <c r="G108" s="0" t="n">
-        <v>994</v>
+        <v>1363</v>
       </c>
       <c r="H108" s="0" t="n">
-        <v>7.44</v>
+        <v>15.2</v>
       </c>
       <c r="I108" s="0" t="n">
-        <v>106</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="109">
@@ -4017,22 +4017,22 @@
         <v>44</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="E109" s="0" t="n">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="F109" s="0" t="n">
-        <v>14283</v>
+        <v>11125</v>
       </c>
       <c r="G109" s="0" t="n">
-        <v>899</v>
+        <v>1351</v>
       </c>
       <c r="H109" s="0" t="n">
-        <v>21.74</v>
+        <v>17.14</v>
       </c>
       <c r="I109" s="0" t="n">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="110">
@@ -4043,25 +4043,25 @@
         <v>126</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D110" s="0" t="n">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E110" s="0" t="n">
-        <v>532</v>
+        <v>549</v>
       </c>
       <c r="F110" s="0" t="n">
-        <v>14862</v>
+        <v>8901</v>
       </c>
       <c r="G110" s="0" t="n">
-        <v>921</v>
+        <v>973</v>
       </c>
       <c r="H110" s="0" t="n">
-        <v>24.65</v>
+        <v>14.84</v>
       </c>
       <c r="I110" s="0" t="n">
-        <v>105</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="111">
@@ -4075,22 +4075,22 @@
         <v>12</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E111" s="0" t="n">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="F111" s="0" t="n">
-        <v>9037</v>
+        <v>8797</v>
       </c>
       <c r="G111" s="0" t="n">
-        <v>728</v>
+        <v>884</v>
       </c>
       <c r="H111" s="0" t="n">
-        <v>15.01</v>
+        <v>14.66</v>
       </c>
       <c r="I111" s="0" t="n">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="112">
@@ -4101,25 +4101,25 @@
         <v>128</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D112" s="0" t="n">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="E112" s="0" t="n">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="F112" s="0" t="n">
-        <v>5356</v>
+        <v>9735</v>
       </c>
       <c r="G112" s="0" t="n">
-        <v>634</v>
+        <v>1180</v>
       </c>
       <c r="H112" s="0" t="n">
-        <v>8.99</v>
+        <v>16.23</v>
       </c>
       <c r="I112" s="0" t="n">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="113">
@@ -4130,25 +4130,25 @@
         <v>129</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D113" s="0" t="n">
         <v>562</v>
       </c>
       <c r="E113" s="0" t="n">
-        <v>523</v>
+        <v>483</v>
       </c>
       <c r="F113" s="0" t="n">
-        <v>16603</v>
+        <v>7158</v>
       </c>
       <c r="G113" s="0" t="n">
-        <v>678</v>
+        <v>719</v>
       </c>
       <c r="H113" s="0" t="n">
-        <v>29.54</v>
+        <v>12.74</v>
       </c>
       <c r="I113" s="0" t="n">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="114">
@@ -4162,22 +4162,22 @@
         <v>31</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E114" s="0" t="n">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="F114" s="0" t="n">
-        <v>14227</v>
+        <v>11215</v>
       </c>
       <c r="G114" s="0" t="n">
-        <v>944</v>
+        <v>1288</v>
       </c>
       <c r="H114" s="0" t="n">
-        <v>25.59</v>
+        <v>20.24</v>
       </c>
       <c r="I114" s="0" t="n">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="115">
@@ -4188,25 +4188,25 @@
         <v>131</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="E115" s="0" t="n">
-        <v>481</v>
+        <v>521</v>
       </c>
       <c r="F115" s="0" t="n">
-        <v>4374</v>
+        <v>8951</v>
       </c>
       <c r="G115" s="0" t="n">
-        <v>490</v>
+        <v>958</v>
       </c>
       <c r="H115" s="0" t="n">
-        <v>7.87</v>
+        <v>16.45</v>
       </c>
       <c r="I115" s="0" t="n">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="116">
@@ -4223,19 +4223,19 @@
         <v>536</v>
       </c>
       <c r="E116" s="0" t="n">
-        <v>487</v>
+        <v>470</v>
       </c>
       <c r="F116" s="0" t="n">
-        <v>3932</v>
+        <v>6292</v>
       </c>
       <c r="G116" s="0" t="n">
-        <v>601</v>
+        <v>581</v>
       </c>
       <c r="H116" s="0" t="n">
-        <v>7.34</v>
+        <v>11.74</v>
       </c>
       <c r="I116" s="0" t="n">
-        <v>80</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="117">
@@ -4246,25 +4246,25 @@
         <v>133</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="F117" s="0" t="n">
-        <v>4625</v>
+        <v>5275</v>
       </c>
       <c r="G117" s="0" t="n">
-        <v>601</v>
+        <v>763</v>
       </c>
       <c r="H117" s="0" t="n">
-        <v>8.73</v>
+        <v>9.86</v>
       </c>
       <c r="I117" s="0" t="n">
-        <v>117</v>
+        <v>95</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="118">
@@ -4275,25 +4275,25 @@
         <v>134</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E118" s="0" t="n">
-        <v>461</v>
+        <v>504</v>
       </c>
       <c r="F118" s="0" t="n">
-        <v>4285</v>
+        <v>7455</v>
       </c>
       <c r="G118" s="0" t="n">
-        <v>435</v>
+        <v>937</v>
       </c>
       <c r="H118" s="0" t="n">
-        <v>8.12</v>
+        <v>14.2</v>
       </c>
       <c r="I118" s="0" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="119">
@@ -4304,25 +4304,25 @@
         <v>135</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="E119" s="0" t="n">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="F119" s="0" t="n">
-        <v>15544</v>
+        <v>8328</v>
       </c>
       <c r="G119" s="0" t="n">
-        <v>355</v>
+        <v>784</v>
       </c>
       <c r="H119" s="0" t="n">
-        <v>29.66</v>
+        <v>16.2</v>
       </c>
       <c r="I119" s="0" t="n">
-        <v>94</v>
+        <v>146</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="120">
@@ -4336,22 +4336,22 @@
         <v>44</v>
       </c>
       <c r="D120" s="0" t="n">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E120" s="0" t="n">
-        <v>456</v>
+        <v>485</v>
       </c>
       <c r="F120" s="0" t="n">
-        <v>13959</v>
+        <v>9424</v>
       </c>
       <c r="G120" s="0" t="n">
-        <v>709</v>
+        <v>473</v>
       </c>
       <c r="H120" s="0" t="n">
-        <v>27.16</v>
+        <v>18.37</v>
       </c>
       <c r="I120" s="0" t="n">
-        <v>130</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="121">
@@ -4362,25 +4362,25 @@
         <v>137</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="E121" s="0" t="n">
-        <v>482</v>
+        <v>462</v>
       </c>
       <c r="F121" s="0" t="n">
-        <v>6284</v>
+        <v>8592</v>
       </c>
       <c r="G121" s="0" t="n">
-        <v>539</v>
+        <v>1062</v>
       </c>
       <c r="H121" s="0" t="n">
-        <v>12.25</v>
+        <v>16.98</v>
       </c>
       <c r="I121" s="0" t="n">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="122">
@@ -4394,22 +4394,22 @@
         <v>44</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="E122" s="0" t="n">
         <v>454</v>
       </c>
       <c r="F122" s="0" t="n">
-        <v>15083</v>
+        <v>10427</v>
       </c>
       <c r="G122" s="0" t="n">
-        <v>621</v>
+        <v>798</v>
       </c>
       <c r="H122" s="0" t="n">
-        <v>29.57</v>
+        <v>20.69</v>
       </c>
       <c r="I122" s="0" t="n">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="123">
@@ -4420,25 +4420,25 @@
         <v>139</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="E123" s="0" t="n">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F123" s="0" t="n">
-        <v>5135</v>
+        <v>7660</v>
       </c>
       <c r="G123" s="0" t="n">
-        <v>733</v>
+        <v>940</v>
       </c>
       <c r="H123" s="0" t="n">
-        <v>10.07</v>
+        <v>15.2</v>
       </c>
       <c r="I123" s="0" t="n">
-        <v>128</v>
+        <v>141</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="124">
@@ -4452,22 +4452,22 @@
         <v>44</v>
       </c>
       <c r="D124" s="0" t="n">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="E124" s="0" t="n">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="F124" s="0" t="n">
-        <v>15126</v>
+        <v>7987</v>
       </c>
       <c r="G124" s="0" t="n">
-        <v>480</v>
+        <v>686</v>
       </c>
       <c r="H124" s="0" t="n">
-        <v>30.43</v>
+        <v>16.27</v>
       </c>
       <c r="I124" s="0" t="n">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="125">
@@ -4478,25 +4478,25 @@
         <v>141</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D125" s="0" t="n">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="E125" s="0" t="n">
-        <v>448</v>
+        <v>416</v>
       </c>
       <c r="F125" s="0" t="n">
-        <v>15706</v>
+        <v>4744</v>
       </c>
       <c r="G125" s="0" t="n">
-        <v>399</v>
+        <v>421</v>
       </c>
       <c r="H125" s="0" t="n">
-        <v>31.73</v>
+        <v>9.74</v>
       </c>
       <c r="I125" s="0" t="n">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="126">
@@ -4507,25 +4507,25 @@
         <v>142</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D126" s="0" t="n">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="E126" s="0" t="n">
-        <v>401</v>
+        <v>449</v>
       </c>
       <c r="F126" s="0" t="n">
-        <v>9010</v>
+        <v>8235</v>
       </c>
       <c r="G126" s="0" t="n">
-        <v>303</v>
+        <v>480</v>
       </c>
       <c r="H126" s="0" t="n">
-        <v>19.33</v>
+        <v>17.16</v>
       </c>
       <c r="I126" s="0" t="n">
-        <v>117</v>
+        <v>137</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="127">
@@ -4536,25 +4536,25 @@
         <v>143</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="E127" s="0" t="n">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="F127" s="0" t="n">
-        <v>3646</v>
+        <v>7012</v>
       </c>
       <c r="G127" s="0" t="n">
-        <v>554</v>
+        <v>302</v>
       </c>
       <c r="H127" s="0" t="n">
-        <v>8.36</v>
+        <v>15.86</v>
       </c>
       <c r="I127" s="0" t="n">
-        <v>109</v>
+        <v>136</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="128">
@@ -4565,25 +4565,25 @@
         <v>144</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D128" s="0" t="n">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="E128" s="0" t="n">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F128" s="0" t="n">
-        <v>6492</v>
+        <v>6071</v>
       </c>
       <c r="G128" s="0" t="n">
-        <v>223</v>
+        <v>812</v>
       </c>
       <c r="H128" s="0" t="n">
-        <v>15.42</v>
+        <v>14.18</v>
       </c>
       <c r="I128" s="0" t="n">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="129">
@@ -4597,22 +4597,22 @@
         <v>28</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E129" s="0" t="n">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="F129" s="0" t="n">
-        <v>3956</v>
+        <v>6416</v>
       </c>
       <c r="G129" s="0" t="n">
-        <v>330</v>
+        <v>458</v>
       </c>
       <c r="H129" s="0" t="n">
-        <v>9.87</v>
+        <v>15.96</v>
       </c>
       <c r="I129" s="0" t="n">
-        <v>151</v>
+        <v>169</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="130">
@@ -4626,22 +4626,22 @@
         <v>44</v>
       </c>
       <c r="D130" s="0" t="n">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E130" s="0" t="n">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F130" s="0" t="n">
-        <v>5240</v>
+        <v>6761</v>
       </c>
       <c r="G130" s="0" t="n">
-        <v>623</v>
+        <v>1027</v>
       </c>
       <c r="H130" s="0" t="n">
-        <v>14.2</v>
+        <v>18.37</v>
       </c>
       <c r="I130" s="0" t="n">
-        <v>113</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="131">
@@ -4655,22 +4655,22 @@
         <v>44</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="E131" s="0" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="F131" s="0" t="n">
-        <v>3736</v>
+        <v>6357</v>
       </c>
       <c r="G131" s="0" t="n">
-        <v>583</v>
+        <v>718</v>
       </c>
       <c r="H131" s="0" t="n">
-        <v>10.55</v>
+        <v>17.37</v>
       </c>
       <c r="I131" s="0" t="n">
-        <v>104</v>
+        <v>133</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="132">
@@ -4684,22 +4684,22 @@
         <v>12</v>
       </c>
       <c r="D132" s="0" t="n">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="E132" s="0" t="n">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="F132" s="0" t="n">
-        <v>18321</v>
+        <v>6434</v>
       </c>
       <c r="G132" s="0" t="n">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="H132" s="0" t="n">
-        <v>52.8</v>
+        <v>18.87</v>
       </c>
       <c r="I132" s="0" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="133">
@@ -4710,25 +4710,25 @@
         <v>149</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E133" s="0" t="n">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F133" s="0" t="n">
-        <v>3821</v>
+        <v>6090</v>
       </c>
       <c r="G133" s="0" t="n">
-        <v>293</v>
+        <v>624</v>
       </c>
       <c r="H133" s="0" t="n">
-        <v>12.05</v>
+        <v>19.33</v>
       </c>
       <c r="I133" s="0" t="n">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="134">
@@ -4739,25 +4739,25 @@
         <v>150</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D134" s="0" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E134" s="0" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F134" s="0" t="n">
-        <v>3542</v>
+        <v>6261</v>
       </c>
       <c r="G134" s="0" t="n">
-        <v>453</v>
+        <v>386</v>
       </c>
       <c r="H134" s="0" t="n">
-        <v>11.32</v>
+        <v>19.94</v>
       </c>
       <c r="I134" s="0" t="n">
-        <v>107</v>
+        <v>123</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="135">
@@ -4771,22 +4771,22 @@
         <v>44</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E135" s="0" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F135" s="0" t="n">
-        <v>4356</v>
+        <v>7710</v>
       </c>
       <c r="G135" s="0" t="n">
-        <v>311</v>
+        <v>487</v>
       </c>
       <c r="H135" s="0" t="n">
-        <v>14.01</v>
+        <v>24.87</v>
       </c>
       <c r="I135" s="0" t="n">
-        <v>124</v>
+        <v>138</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="136">
@@ -4800,22 +4800,22 @@
         <v>28</v>
       </c>
       <c r="D136" s="0" t="n">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="E136" s="0" t="n">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="F136" s="0" t="n">
-        <v>1851</v>
+        <v>3007</v>
       </c>
       <c r="G136" s="0" t="n">
-        <v>213</v>
+        <v>268</v>
       </c>
       <c r="H136" s="0" t="n">
-        <v>6.83</v>
+        <v>10.74</v>
       </c>
       <c r="I136" s="0" t="n">
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="137">
@@ -4826,25 +4826,25 @@
         <v>153</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E137" s="0" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F137" s="0" t="n">
-        <v>10394</v>
+        <v>3488</v>
       </c>
       <c r="G137" s="0" t="n">
-        <v>130</v>
+        <v>208</v>
       </c>
       <c r="H137" s="0" t="n">
-        <v>42.6</v>
+        <v>14.53</v>
       </c>
       <c r="I137" s="0" t="n">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="138">
@@ -4855,25 +4855,25 @@
         <v>154</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D138" s="0" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E138" s="0" t="n">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="F138" s="0" t="n">
-        <v>1994</v>
+        <v>3024</v>
       </c>
       <c r="G138" s="0" t="n">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="H138" s="0" t="n">
-        <v>8.27</v>
+        <v>12.6</v>
       </c>
       <c r="I138" s="0" t="n">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="139">
@@ -4884,25 +4884,25 @@
         <v>155</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="E139" s="0" t="n">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F139" s="0" t="n">
-        <v>3113</v>
+        <v>2520</v>
       </c>
       <c r="G139" s="0" t="n">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="H139" s="0" t="n">
-        <v>13.84</v>
+        <v>11.78</v>
       </c>
       <c r="I139" s="0" t="n">
-        <v>112</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="140">
@@ -4913,25 +4913,25 @@
         <v>156</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D140" s="0" t="n">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="E140" s="0" t="n">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F140" s="0" t="n">
-        <v>7639</v>
+        <v>4548</v>
       </c>
       <c r="G140" s="0" t="n">
-        <v>133</v>
+        <v>300</v>
       </c>
       <c r="H140" s="0" t="n">
-        <v>34.1</v>
+        <v>21.25</v>
       </c>
       <c r="I140" s="0" t="n">
-        <v>63</v>
+        <v>124</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="141">
@@ -4942,25 +4942,25 @@
         <v>157</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E141" s="0" t="n">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="F141" s="0" t="n">
-        <v>1799</v>
+        <v>2664</v>
       </c>
       <c r="G141" s="0" t="n">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="H141" s="0" t="n">
-        <v>8.57</v>
+        <v>12.51</v>
       </c>
       <c r="I141" s="0" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="142">
@@ -4971,25 +4971,25 @@
         <v>158</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E142" s="0" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F142" s="0" t="n">
-        <v>1563</v>
+        <v>3096</v>
       </c>
       <c r="G142" s="0" t="n">
-        <v>132</v>
+        <v>286</v>
       </c>
       <c r="H142" s="0" t="n">
-        <v>7.51</v>
+        <v>14.81</v>
       </c>
       <c r="I142" s="0" t="n">
-        <v>81</v>
+        <v>107</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="143">
@@ -5000,25 +5000,25 @@
         <v>159</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D143" s="0" t="n">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E143" s="0" t="n">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="F143" s="0" t="n">
-        <v>2422</v>
+        <v>5265</v>
       </c>
       <c r="G143" s="0" t="n">
-        <v>273</v>
+        <v>443</v>
       </c>
       <c r="H143" s="0" t="n">
-        <v>11.81</v>
+        <v>26.59</v>
       </c>
       <c r="I143" s="0" t="n">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="144">
@@ -5029,25 +5029,25 @@
         <v>160</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="D144" s="0" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E144" s="0" t="n">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="F144" s="0" t="n">
-        <v>3074</v>
+        <v>3739</v>
       </c>
       <c r="G144" s="0" t="n">
-        <v>311</v>
+        <v>347</v>
       </c>
       <c r="H144" s="0" t="n">
-        <v>15.68</v>
+        <v>18.98</v>
       </c>
       <c r="I144" s="0" t="n">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="145">
@@ -5061,22 +5061,22 @@
         <v>28</v>
       </c>
       <c r="D145" s="0" t="n">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E145" s="0" t="n">
         <v>172</v>
       </c>
       <c r="F145" s="0" t="n">
-        <v>2227</v>
+        <v>3952</v>
       </c>
       <c r="G145" s="0" t="n">
-        <v>141</v>
+        <v>183</v>
       </c>
       <c r="H145" s="0" t="n">
-        <v>11.42</v>
+        <v>20.91</v>
       </c>
       <c r="I145" s="0" t="n">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="146">
@@ -5090,22 +5090,22 @@
         <v>44</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E146" s="0" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F146" s="0" t="n">
-        <v>2225</v>
+        <v>3458</v>
       </c>
       <c r="G146" s="0" t="n">
-        <v>189</v>
+        <v>309</v>
       </c>
       <c r="H146" s="0" t="n">
-        <v>11.65</v>
+        <v>18.39</v>
       </c>
       <c r="I146" s="0" t="n">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="147">
@@ -5119,22 +5119,22 @@
         <v>14</v>
       </c>
       <c r="D147" s="0" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E147" s="0" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F147" s="0" t="n">
-        <v>3404</v>
+        <v>5870</v>
       </c>
       <c r="G147" s="0" t="n">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="H147" s="0" t="n">
-        <v>18.5</v>
+        <v>31.56</v>
       </c>
       <c r="I147" s="0" t="n">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="148">
@@ -5148,22 +5148,22 @@
         <v>44</v>
       </c>
       <c r="D148" s="0" t="n">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E148" s="0" t="n">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F148" s="0" t="n">
-        <v>3153</v>
+        <v>2098</v>
       </c>
       <c r="G148" s="0" t="n">
-        <v>292</v>
+        <v>147</v>
       </c>
       <c r="H148" s="0" t="n">
-        <v>18.66</v>
+        <v>12.13</v>
       </c>
       <c r="I148" s="0" t="n">
-        <v>73</v>
+        <v>89</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="149">
@@ -5174,25 +5174,25 @@
         <v>165</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E149" s="0" t="n">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F149" s="0" t="n">
-        <v>1003</v>
+        <v>5340</v>
       </c>
       <c r="G149" s="0" t="n">
-        <v>192</v>
+        <v>393</v>
       </c>
       <c r="H149" s="0" t="n">
-        <v>6.12</v>
+        <v>31.79</v>
       </c>
       <c r="I149" s="0" t="n">
-        <v>58</v>
+        <v>90</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="150">
@@ -5203,25 +5203,25 @@
         <v>166</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D150" s="0" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E150" s="0" t="n">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F150" s="0" t="n">
-        <v>5253</v>
+        <v>1666</v>
       </c>
       <c r="G150" s="0" t="n">
-        <v>155</v>
+        <v>244</v>
       </c>
       <c r="H150" s="0" t="n">
-        <v>32.63</v>
+        <v>10.22</v>
       </c>
       <c r="I150" s="0" t="n">
-        <v>145</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="151">
@@ -5235,22 +5235,22 @@
         <v>22</v>
       </c>
       <c r="D151" s="0" t="n">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E151" s="0" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F151" s="0" t="n">
-        <v>1975</v>
+        <v>3238</v>
       </c>
       <c r="G151" s="0" t="n">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="H151" s="0" t="n">
-        <v>12.27</v>
+        <v>20.36</v>
       </c>
       <c r="I151" s="0" t="n">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="152">
@@ -5264,22 +5264,22 @@
         <v>44</v>
       </c>
       <c r="D152" s="0" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E152" s="0" t="n">
         <v>148</v>
       </c>
       <c r="F152" s="0" t="n">
-        <v>1248</v>
+        <v>9976</v>
       </c>
       <c r="G152" s="0" t="n">
-        <v>99</v>
+        <v>227</v>
       </c>
       <c r="H152" s="0" t="n">
-        <v>7.8</v>
+        <v>63.14</v>
       </c>
       <c r="I152" s="0" t="n">
-        <v>73</v>
+        <v>158</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="153">
@@ -5290,25 +5290,25 @@
         <v>169</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D153" s="0" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E153" s="0" t="n">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="F153" s="0" t="n">
-        <v>1881</v>
+        <v>2470</v>
       </c>
       <c r="G153" s="0" t="n">
-        <v>131</v>
+        <v>311</v>
       </c>
       <c r="H153" s="0" t="n">
-        <v>11.83</v>
+        <v>16.04</v>
       </c>
       <c r="I153" s="0" t="n">
-        <v>100</v>
+        <v>54</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="154">
@@ -5319,25 +5319,25 @@
         <v>170</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D154" s="0" t="n">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="E154" s="0" t="n">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="F154" s="0" t="n">
-        <v>724</v>
+        <v>4691</v>
       </c>
       <c r="G154" s="0" t="n">
-        <v>52</v>
+        <v>207</v>
       </c>
       <c r="H154" s="0" t="n">
-        <v>4.67</v>
+        <v>32.8</v>
       </c>
       <c r="I154" s="0" t="n">
-        <v>77</v>
+        <v>120</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="155">
@@ -5348,25 +5348,25 @@
         <v>171</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D155" s="0" t="n">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="E155" s="0" t="n">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="F155" s="0" t="n">
-        <v>1513</v>
+        <v>2617</v>
       </c>
       <c r="G155" s="0" t="n">
-        <v>239</v>
+        <v>179</v>
       </c>
       <c r="H155" s="0" t="n">
-        <v>9.82</v>
+        <v>18.3</v>
       </c>
       <c r="I155" s="0" t="n">
-        <v>43</v>
+        <v>109</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="156">
@@ -5380,22 +5380,22 @@
         <v>28</v>
       </c>
       <c r="D156" s="0" t="n">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E156" s="0" t="n">
         <v>120</v>
       </c>
       <c r="F156" s="0" t="n">
-        <v>1599</v>
+        <v>2724</v>
       </c>
       <c r="G156" s="0" t="n">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="H156" s="0" t="n">
-        <v>11.34</v>
+        <v>19.05</v>
       </c>
       <c r="I156" s="0" t="n">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="157">
@@ -5406,25 +5406,25 @@
         <v>173</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D157" s="0" t="n">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E157" s="0" t="n">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="F157" s="0" t="n">
-        <v>1533</v>
+        <v>1236</v>
       </c>
       <c r="G157" s="0" t="n">
-        <v>221</v>
+        <v>65</v>
       </c>
       <c r="H157" s="0" t="n">
-        <v>11.03</v>
+        <v>8.7</v>
       </c>
       <c r="I157" s="0" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="158">
@@ -5438,22 +5438,22 @@
         <v>14</v>
       </c>
       <c r="D158" s="0" t="n">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E158" s="0" t="n">
         <v>126</v>
       </c>
       <c r="F158" s="0" t="n">
-        <v>2846</v>
+        <v>2486</v>
       </c>
       <c r="G158" s="0" t="n">
-        <v>151</v>
+        <v>336</v>
       </c>
       <c r="H158" s="0" t="n">
-        <v>20.47</v>
+        <v>17.63</v>
       </c>
       <c r="I158" s="0" t="n">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="159">
@@ -5464,25 +5464,25 @@
         <v>175</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D159" s="0" t="n">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E159" s="0" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F159" s="0" t="n">
-        <v>2133</v>
+        <v>1174</v>
       </c>
       <c r="G159" s="0" t="n">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="H159" s="0" t="n">
-        <v>17.63</v>
+        <v>9.87</v>
       </c>
       <c r="I159" s="0" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="160">
@@ -5493,25 +5493,25 @@
         <v>176</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D160" s="0" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E160" s="0" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F160" s="0" t="n">
-        <v>730</v>
+        <v>1158</v>
       </c>
       <c r="G160" s="0" t="n">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="H160" s="0" t="n">
-        <v>6.13</v>
+        <v>9.81</v>
       </c>
       <c r="I160" s="0" t="n">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="161">
@@ -5525,22 +5525,22 @@
         <v>28</v>
       </c>
       <c r="D161" s="0" t="n">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E161" s="0" t="n">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F161" s="0" t="n">
-        <v>1482</v>
+        <v>1764</v>
       </c>
       <c r="G161" s="0" t="n">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H161" s="0" t="n">
-        <v>13.12</v>
+        <v>16.04</v>
       </c>
       <c r="I161" s="0" t="n">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="162">
@@ -5554,22 +5554,22 @@
         <v>28</v>
       </c>
       <c r="D162" s="0" t="n">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E162" s="0" t="n">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F162" s="0" t="n">
-        <v>1018</v>
+        <v>2378</v>
       </c>
       <c r="G162" s="0" t="n">
-        <v>83</v>
+        <v>194</v>
       </c>
       <c r="H162" s="0" t="n">
-        <v>9.51</v>
+        <v>21.62</v>
       </c>
       <c r="I162" s="0" t="n">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="163">
@@ -5580,25 +5580,25 @@
         <v>179</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D163" s="0" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E163" s="0" t="n">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F163" s="0" t="n">
-        <v>13325</v>
+        <v>1180</v>
       </c>
       <c r="G163" s="0" t="n">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="H163" s="0" t="n">
-        <v>128.13</v>
+        <v>11.46</v>
       </c>
       <c r="I163" s="0" t="n">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="164">
@@ -5609,25 +5609,25 @@
         <v>180</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D164" s="0" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E164" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="F164" s="0" t="n">
+        <v>2735</v>
+      </c>
+      <c r="G164" s="0" t="n">
+        <v>165</v>
+      </c>
+      <c r="H164" s="0" t="n">
+        <v>27.08</v>
+      </c>
+      <c r="I164" s="0" t="n">
         <v>88</v>
-      </c>
-      <c r="F164" s="0" t="n">
-        <v>758</v>
-      </c>
-      <c r="G164" s="0" t="n">
-        <v>82</v>
-      </c>
-      <c r="H164" s="0" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="I164" s="0" t="n">
-        <v>46</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="165">
@@ -5641,22 +5641,22 @@
         <v>14</v>
       </c>
       <c r="D165" s="0" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E165" s="0" t="n">
         <v>92</v>
       </c>
       <c r="F165" s="0" t="n">
-        <v>1337</v>
+        <v>2204</v>
       </c>
       <c r="G165" s="0" t="n">
-        <v>92</v>
+        <v>156</v>
       </c>
       <c r="H165" s="0" t="n">
-        <v>13.37</v>
+        <v>22.72</v>
       </c>
       <c r="I165" s="0" t="n">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="166">
@@ -5670,22 +5670,22 @@
         <v>44</v>
       </c>
       <c r="D166" s="0" t="n">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E166" s="0" t="n">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F166" s="0" t="n">
-        <v>1613</v>
+        <v>5148</v>
       </c>
       <c r="G166" s="0" t="n">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="H166" s="0" t="n">
-        <v>16.29</v>
+        <v>53.63</v>
       </c>
       <c r="I166" s="0" t="n">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="167">
@@ -5702,19 +5702,19 @@
         <v>92</v>
       </c>
       <c r="E167" s="0" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F167" s="0" t="n">
-        <v>1744</v>
+        <v>3056</v>
       </c>
       <c r="G167" s="0" t="n">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="H167" s="0" t="n">
-        <v>18.96</v>
+        <v>33.22</v>
       </c>
       <c r="I167" s="0" t="n">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="168">
@@ -5734,16 +5734,16 @@
         <v>72</v>
       </c>
       <c r="F168" s="0" t="n">
-        <v>1368</v>
+        <v>2533</v>
       </c>
       <c r="G168" s="0" t="n">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="H168" s="0" t="n">
-        <v>16.48</v>
+        <v>30.52</v>
       </c>
       <c r="I168" s="0" t="n">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="169">
@@ -5754,25 +5754,25 @@
         <v>185</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D169" s="0" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E169" s="0" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F169" s="0" t="n">
-        <v>763</v>
+        <v>1561</v>
       </c>
       <c r="G169" s="0" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H169" s="0" t="n">
-        <v>10.75</v>
+        <v>23.3</v>
       </c>
       <c r="I169" s="0" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="170">
@@ -5786,22 +5786,22 @@
         <v>44</v>
       </c>
       <c r="D170" s="0" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E170" s="0" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F170" s="0" t="n">
-        <v>777</v>
+        <v>1049</v>
       </c>
       <c r="G170" s="0" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H170" s="0" t="n">
-        <v>11.43</v>
+        <v>15.89</v>
       </c>
       <c r="I170" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="171">
@@ -5821,16 +5821,16 @@
         <v>54</v>
       </c>
       <c r="F171" s="0" t="n">
-        <v>742</v>
+        <v>822</v>
       </c>
       <c r="G171" s="0" t="n">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="H171" s="0" t="n">
-        <v>11.24</v>
+        <v>12.45</v>
       </c>
       <c r="I171" s="0" t="n">
-        <v>49</v>
+        <v>86</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="172">
@@ -5841,25 +5841,25 @@
         <v>188</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D172" s="0" t="n">
         <v>66</v>
       </c>
       <c r="E172" s="0" t="n">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F172" s="0" t="n">
-        <v>564</v>
+        <v>649</v>
       </c>
       <c r="G172" s="0" t="n">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="H172" s="0" t="n">
-        <v>8.55</v>
+        <v>9.83</v>
       </c>
       <c r="I172" s="0" t="n">
-        <v>79</v>
+        <v>58</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="173">
@@ -5873,22 +5873,22 @@
         <v>28</v>
       </c>
       <c r="D173" s="0" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E173" s="0" t="n">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F173" s="0" t="n">
-        <v>839</v>
+        <v>982</v>
       </c>
       <c r="G173" s="0" t="n">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="H173" s="0" t="n">
-        <v>12.91</v>
+        <v>15.34</v>
       </c>
       <c r="I173" s="0" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="174">
@@ -5902,22 +5902,22 @@
         <v>22</v>
       </c>
       <c r="D174" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="E174" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="F174" s="0" t="n">
+        <v>994</v>
+      </c>
+      <c r="G174" s="0" t="n">
         <v>62</v>
       </c>
-      <c r="E174" s="0" t="n">
-        <v>56</v>
-      </c>
-      <c r="F174" s="0" t="n">
-        <v>583</v>
-      </c>
-      <c r="G174" s="0" t="n">
-        <v>44</v>
-      </c>
       <c r="H174" s="0" t="n">
-        <v>9.4</v>
+        <v>16.57</v>
       </c>
       <c r="I174" s="0" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="175">
@@ -5931,22 +5931,22 @@
         <v>44</v>
       </c>
       <c r="D175" s="0" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E175" s="0" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F175" s="0" t="n">
-        <v>516</v>
+        <v>706</v>
       </c>
       <c r="G175" s="0" t="n">
-        <v>140</v>
+        <v>8</v>
       </c>
       <c r="H175" s="0" t="n">
-        <v>8.6</v>
+        <v>11.97</v>
       </c>
       <c r="I175" s="0" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="176">
@@ -5957,7 +5957,7 @@
         <v>192</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="D176" s="0" t="n">
         <v>58</v>
@@ -5966,16 +5966,16 @@
         <v>54</v>
       </c>
       <c r="F176" s="0" t="n">
-        <v>609</v>
+        <v>980</v>
       </c>
       <c r="G176" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="H176" s="0" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="I176" s="0" t="n">
         <v>55</v>
-      </c>
-      <c r="H176" s="0" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="I176" s="0" t="n">
-        <v>51</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="177">
@@ -5989,22 +5989,22 @@
         <v>44</v>
       </c>
       <c r="D177" s="0" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E177" s="0" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F177" s="0" t="n">
-        <v>441</v>
+        <v>829</v>
       </c>
       <c r="G177" s="0" t="n">
-        <v>6</v>
+        <v>194</v>
       </c>
       <c r="H177" s="0" t="n">
-        <v>7.6</v>
+        <v>14.54</v>
       </c>
       <c r="I177" s="0" t="n">
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="178">
@@ -6015,25 +6015,25 @@
         <v>194</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D178" s="0" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E178" s="0" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F178" s="0" t="n">
-        <v>903</v>
+        <v>989</v>
       </c>
       <c r="G178" s="0" t="n">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="H178" s="0" t="n">
-        <v>16.42</v>
+        <v>17.66</v>
       </c>
       <c r="I178" s="0" t="n">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="179">
@@ -6047,22 +6047,22 @@
         <v>44</v>
       </c>
       <c r="D179" s="0" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E179" s="0" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F179" s="0" t="n">
-        <v>404</v>
+        <v>613</v>
       </c>
       <c r="G179" s="0" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="H179" s="0" t="n">
-        <v>7.48</v>
+        <v>10.95</v>
       </c>
       <c r="I179" s="0" t="n">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="180">
@@ -6082,16 +6082,16 @@
         <v>49</v>
       </c>
       <c r="F180" s="0" t="n">
-        <v>556</v>
+        <v>952</v>
       </c>
       <c r="G180" s="0" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="H180" s="0" t="n">
-        <v>10.3</v>
+        <v>17.63</v>
       </c>
       <c r="I180" s="0" t="n">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="181">
@@ -6111,16 +6111,16 @@
         <v>50</v>
       </c>
       <c r="F181" s="0" t="n">
-        <v>422</v>
+        <v>789</v>
       </c>
       <c r="G181" s="0" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H181" s="0" t="n">
-        <v>8.12</v>
+        <v>15.17</v>
       </c>
       <c r="I181" s="0" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="182">
@@ -6140,16 +6140,16 @@
         <v>42</v>
       </c>
       <c r="F182" s="0" t="n">
-        <v>545</v>
+        <v>957</v>
       </c>
       <c r="G182" s="0" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H182" s="0" t="n">
-        <v>10.69</v>
+        <v>18.76</v>
       </c>
       <c r="I182" s="0" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="183">
@@ -6166,19 +6166,19 @@
         <v>48</v>
       </c>
       <c r="E183" s="0" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F183" s="0" t="n">
-        <v>769</v>
+        <v>1213</v>
       </c>
       <c r="G183" s="0" t="n">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H183" s="0" t="n">
-        <v>16.02</v>
+        <v>25.27</v>
       </c>
       <c r="I183" s="0" t="n">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="184">
@@ -6192,22 +6192,22 @@
         <v>28</v>
       </c>
       <c r="D184" s="0" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E184" s="0" t="n">
         <v>32</v>
       </c>
       <c r="F184" s="0" t="n">
-        <v>337</v>
+        <v>593</v>
       </c>
       <c r="G184" s="0" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="H184" s="0" t="n">
-        <v>7.66</v>
+        <v>13.18</v>
       </c>
       <c r="I184" s="0" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="185">
@@ -6227,16 +6227,16 @@
         <v>42</v>
       </c>
       <c r="F185" s="0" t="n">
-        <v>347</v>
+        <v>602</v>
       </c>
       <c r="G185" s="0" t="n">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="H185" s="0" t="n">
-        <v>8.07</v>
+        <v>14</v>
       </c>
       <c r="I185" s="0" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="186">
@@ -6253,19 +6253,19 @@
         <v>41</v>
       </c>
       <c r="E186" s="0" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F186" s="0" t="n">
-        <v>5521</v>
+        <v>2130</v>
       </c>
       <c r="G186" s="0" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H186" s="0" t="n">
-        <v>134.66</v>
+        <v>51.95</v>
       </c>
       <c r="I186" s="0" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="187">
@@ -6276,25 +6276,25 @@
         <v>203</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="D187" s="0" t="n">
         <v>39</v>
       </c>
       <c r="E187" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="F187" s="0" t="n">
+        <v>505</v>
+      </c>
+      <c r="G187" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="F187" s="0" t="n">
-        <v>225</v>
-      </c>
-      <c r="G187" s="0" t="n">
-        <v>27</v>
-      </c>
       <c r="H187" s="0" t="n">
-        <v>5.77</v>
+        <v>12.95</v>
       </c>
       <c r="I187" s="0" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="188">
@@ -6305,25 +6305,25 @@
         <v>204</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D188" s="0" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E188" s="0" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F188" s="0" t="n">
-        <v>288</v>
+        <v>431</v>
       </c>
       <c r="G188" s="0" t="n">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="H188" s="0" t="n">
-        <v>7.58</v>
+        <v>11.05</v>
       </c>
       <c r="I188" s="0" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="189">
@@ -6337,22 +6337,22 @@
         <v>12</v>
       </c>
       <c r="D189" s="0" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E189" s="0" t="n">
         <v>30</v>
       </c>
       <c r="F189" s="0" t="n">
-        <v>314</v>
+        <v>554</v>
       </c>
       <c r="G189" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="H189" s="0" t="n">
+        <v>14.58</v>
+      </c>
+      <c r="I189" s="0" t="n">
         <v>47</v>
-      </c>
-      <c r="H189" s="0" t="n">
-        <v>8.49</v>
-      </c>
-      <c r="I189" s="0" t="n">
-        <v>40</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="190">
@@ -6372,16 +6372,16 @@
         <v>34</v>
       </c>
       <c r="F190" s="0" t="n">
-        <v>301</v>
+        <v>502</v>
       </c>
       <c r="G190" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H190" s="0" t="n">
-        <v>8.36</v>
+        <v>13.94</v>
       </c>
       <c r="I190" s="0" t="n">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="191">
@@ -6395,22 +6395,22 @@
         <v>22</v>
       </c>
       <c r="D191" s="0" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E191" s="0" t="n">
         <v>30</v>
       </c>
       <c r="F191" s="0" t="n">
-        <v>287</v>
+        <v>502</v>
       </c>
       <c r="G191" s="0" t="n">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H191" s="0" t="n">
-        <v>8.7</v>
+        <v>14.76</v>
       </c>
       <c r="I191" s="0" t="n">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="192">
@@ -6424,22 +6424,22 @@
         <v>28</v>
       </c>
       <c r="D192" s="0" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E192" s="0" t="n">
         <v>27</v>
       </c>
       <c r="F192" s="0" t="n">
-        <v>193</v>
+        <v>327</v>
       </c>
       <c r="G192" s="0" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H192" s="0" t="n">
-        <v>6.03</v>
+        <v>9.91</v>
       </c>
       <c r="I192" s="0" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="193">
@@ -6450,25 +6450,25 @@
         <v>209</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="D193" s="0" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E193" s="0" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F193" s="0" t="n">
-        <v>11563</v>
+        <v>437</v>
       </c>
       <c r="G193" s="0" t="n">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="H193" s="0" t="n">
-        <v>361.34</v>
+        <v>14.1</v>
       </c>
       <c r="I193" s="0" t="n">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="194">
@@ -6479,25 +6479,25 @@
         <v>210</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D194" s="0" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E194" s="0" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F194" s="0" t="n">
-        <v>225</v>
+        <v>580</v>
       </c>
       <c r="G194" s="0" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="H194" s="0" t="n">
-        <v>7.26</v>
+        <v>20</v>
       </c>
       <c r="I194" s="0" t="n">
-        <v>28</v>
+        <v>54</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="195">
@@ -6508,25 +6508,25 @@
         <v>211</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D195" s="0" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E195" s="0" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F195" s="0" t="n">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="G195" s="0" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="H195" s="0" t="n">
-        <v>11.66</v>
+        <v>14.38</v>
       </c>
       <c r="I195" s="0" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="196">
@@ -6537,25 +6537,25 @@
         <v>212</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="D196" s="0" t="n">
         <v>25</v>
       </c>
       <c r="E196" s="0" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F196" s="0" t="n">
-        <v>211</v>
+        <v>369</v>
       </c>
       <c r="G196" s="0" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="H196" s="0" t="n">
-        <v>8.44</v>
+        <v>14.76</v>
       </c>
       <c r="I196" s="0" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="197">
@@ -6566,25 +6566,25 @@
         <v>213</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D197" s="0" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E197" s="0" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F197" s="0" t="n">
-        <v>217</v>
+        <v>2158</v>
       </c>
       <c r="G197" s="0" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="H197" s="0" t="n">
-        <v>9.04</v>
+        <v>86.32</v>
       </c>
       <c r="I197" s="0" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="198">
@@ -6595,25 +6595,25 @@
         <v>214</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D198" s="0" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E198" s="0" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F198" s="0" t="n">
-        <v>231</v>
+        <v>435</v>
       </c>
       <c r="G198" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H198" s="0" t="n">
-        <v>10.04</v>
+        <v>18.13</v>
       </c>
       <c r="I198" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="199">
@@ -6627,22 +6627,22 @@
         <v>22</v>
       </c>
       <c r="D199" s="0" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E199" s="0" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F199" s="0" t="n">
-        <v>220</v>
+        <v>358</v>
       </c>
       <c r="G199" s="0" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H199" s="0" t="n">
-        <v>9.57</v>
+        <v>14.92</v>
       </c>
       <c r="I199" s="0" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="200">
@@ -6662,16 +6662,16 @@
         <v>20</v>
       </c>
       <c r="F200" s="0" t="n">
-        <v>357</v>
+        <v>601</v>
       </c>
       <c r="G200" s="0" t="n">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="H200" s="0" t="n">
-        <v>16.23</v>
+        <v>27.32</v>
       </c>
       <c r="I200" s="0" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="201">
@@ -6691,16 +6691,16 @@
         <v>21</v>
       </c>
       <c r="F201" s="0" t="n">
-        <v>171</v>
+        <v>320</v>
       </c>
       <c r="G201" s="0" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H201" s="0" t="n">
-        <v>8.14</v>
+        <v>15.24</v>
       </c>
       <c r="I201" s="0" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="202">
@@ -6720,16 +6720,16 @@
         <v>20</v>
       </c>
       <c r="F202" s="0" t="n">
-        <v>151</v>
+        <v>249</v>
       </c>
       <c r="G202" s="0" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H202" s="0" t="n">
-        <v>7.19</v>
+        <v>11.86</v>
       </c>
       <c r="I202" s="0" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="203">
@@ -6749,16 +6749,16 @@
         <v>20</v>
       </c>
       <c r="F203" s="0" t="n">
-        <v>147</v>
+        <v>247</v>
       </c>
       <c r="G203" s="0" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H203" s="0" t="n">
-        <v>7.35</v>
+        <v>12.35</v>
       </c>
       <c r="I203" s="0" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="204">
@@ -6772,22 +6772,22 @@
         <v>14</v>
       </c>
       <c r="D204" s="0" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E204" s="0" t="n">
         <v>18</v>
       </c>
       <c r="F204" s="0" t="n">
-        <v>149</v>
+        <v>211</v>
       </c>
       <c r="G204" s="0" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H204" s="0" t="n">
-        <v>7.45</v>
+        <v>11.11</v>
       </c>
       <c r="I204" s="0" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="205">
@@ -6801,22 +6801,22 @@
         <v>28</v>
       </c>
       <c r="D205" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E205" s="0" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F205" s="0" t="n">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="G205" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H205" s="0" t="n">
-        <v>1.61</v>
+        <v>2.88</v>
       </c>
       <c r="I205" s="0" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="206">
@@ -6830,22 +6830,22 @@
         <v>28</v>
       </c>
       <c r="D206" s="0" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E206" s="0" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F206" s="0" t="n">
-        <v>8181</v>
+        <v>265</v>
       </c>
       <c r="G206" s="0" t="n">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="H206" s="0" t="n">
-        <v>454.5</v>
+        <v>16.56</v>
       </c>
       <c r="I206" s="0" t="n">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="207">
@@ -6856,25 +6856,25 @@
         <v>223</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D207" s="0" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E207" s="0" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F207" s="0" t="n">
-        <v>160</v>
+        <v>252</v>
       </c>
       <c r="G207" s="0" t="n">
         <v>2</v>
       </c>
       <c r="H207" s="0" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I207" s="0" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="208">
@@ -6885,25 +6885,25 @@
         <v>224</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D208" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E208" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F208" s="0" t="n">
-        <v>159</v>
+        <v>910</v>
       </c>
       <c r="G208" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H208" s="0" t="n">
-        <v>11.36</v>
+        <v>70</v>
       </c>
       <c r="I208" s="0" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="209">
@@ -6923,16 +6923,16 @@
         <v>11</v>
       </c>
       <c r="F209" s="0" t="n">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="G209" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H209" s="0" t="n">
-        <v>4.33</v>
+        <v>8.33</v>
       </c>
       <c r="I209" s="0" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="210">
@@ -6952,16 +6952,16 @@
         <v>7</v>
       </c>
       <c r="F210" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G210" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H210" s="0" t="n">
-        <v>4.17</v>
+        <v>8.33</v>
       </c>
       <c r="I210" s="0" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="211">
@@ -6972,25 +6972,25 @@
         <v>227</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D211" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E211" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F211" s="0" t="n">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="G211" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H211" s="0" t="n">
-        <v>27.44</v>
+        <v>23.2</v>
       </c>
       <c r="I211" s="0" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="212">
@@ -7001,25 +7001,25 @@
         <v>228</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D212" s="0" t="n">
         <v>9</v>
       </c>
       <c r="E212" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F212" s="0" t="n">
-        <v>209</v>
+        <v>503</v>
       </c>
       <c r="G212" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H212" s="0" t="n">
-        <v>23.22</v>
+        <v>55.89</v>
       </c>
       <c r="I212" s="0" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="213">
@@ -7030,7 +7030,7 @@
         <v>229</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D213" s="0" t="n">
         <v>8</v>
@@ -7039,16 +7039,16 @@
         <v>6</v>
       </c>
       <c r="F213" s="0" t="n">
-        <v>64</v>
+        <v>188</v>
       </c>
       <c r="G213" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H213" s="0" t="n">
-        <v>8</v>
+        <v>23.5</v>
       </c>
       <c r="I213" s="0" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="214">
@@ -7068,16 +7068,16 @@
         <v>8</v>
       </c>
       <c r="F214" s="0" t="n">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="G214" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H214" s="0" t="n">
-        <v>6.5</v>
+        <v>16.38</v>
       </c>
       <c r="I214" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="215">
@@ -7088,7 +7088,7 @@
         <v>231</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D215" s="0" t="n">
         <v>8</v>
@@ -7097,16 +7097,16 @@
         <v>6</v>
       </c>
       <c r="F215" s="0" t="n">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="G215" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H215" s="0" t="n">
-        <v>11.88</v>
+        <v>14.25</v>
       </c>
       <c r="I215" s="0" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="216">
@@ -7117,7 +7117,7 @@
         <v>232</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D216" s="0" t="n">
         <v>7</v>
@@ -7126,16 +7126,16 @@
         <v>6</v>
       </c>
       <c r="F216" s="0" t="n">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="G216" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H216" s="0" t="n">
-        <v>5.57</v>
+        <v>19.14</v>
       </c>
       <c r="I216" s="0" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="217">
@@ -7146,25 +7146,25 @@
         <v>233</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D217" s="0" t="n">
         <v>7</v>
       </c>
       <c r="E217" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F217" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="G217" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="H217" s="0" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="I217" s="0" t="n">
         <v>25</v>
-      </c>
-      <c r="G217" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H217" s="0" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="I217" s="0" t="n">
-        <v>22</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="218">
@@ -7184,16 +7184,16 @@
         <v>5</v>
       </c>
       <c r="F218" s="0" t="n">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="G218" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H218" s="0" t="n">
-        <v>9.83</v>
+        <v>4.83</v>
       </c>
       <c r="I218" s="0" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="219">
@@ -7204,25 +7204,25 @@
         <v>235</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D219" s="0" t="n">
         <v>6</v>
       </c>
       <c r="E219" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F219" s="0" t="n">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="G219" s="0" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H219" s="0" t="n">
-        <v>4</v>
+        <v>10.17</v>
       </c>
       <c r="I219" s="0" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="220">
@@ -7242,16 +7242,16 @@
         <v>6</v>
       </c>
       <c r="F220" s="0" t="n">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="G220" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H220" s="0" t="n">
-        <v>10.67</v>
+        <v>17.67</v>
       </c>
       <c r="I220" s="0" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="221">
@@ -7262,25 +7262,25 @@
         <v>237</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D221" s="0" t="n">
         <v>6</v>
       </c>
       <c r="E221" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F221" s="0" t="n">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="G221" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H221" s="0" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="I221" s="0" t="n">
-        <v>60</v>
+        <v>18</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="222">
@@ -7297,19 +7297,19 @@
         <v>5</v>
       </c>
       <c r="E222" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F222" s="0" t="n">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="G222" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H222" s="0" t="n">
-        <v>1.4</v>
+        <v>13</v>
       </c>
       <c r="I222" s="0" t="n">
-        <v>5</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="223">
@@ -7320,7 +7320,7 @@
         <v>239</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D223" s="0" t="n">
         <v>5</v>
@@ -7329,16 +7329,16 @@
         <v>4</v>
       </c>
       <c r="F223" s="0" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G223" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H223" s="0" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="I223" s="0" t="n">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="224">
@@ -7349,7 +7349,7 @@
         <v>240</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D224" s="0" t="n">
         <v>5</v>
@@ -7358,16 +7358,16 @@
         <v>4</v>
       </c>
       <c r="F224" s="0" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G224" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H224" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I224" s="0" t="n">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="225">
@@ -7378,25 +7378,25 @@
         <v>241</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D225" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E225" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F225" s="0" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G225" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H225" s="0" t="n">
-        <v>7.6</v>
+        <v>12.5</v>
       </c>
       <c r="I225" s="0" t="n">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="226">
@@ -7416,16 +7416,16 @@
         <v>4</v>
       </c>
       <c r="F226" s="0" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="G226" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H226" s="0" t="n">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="I226" s="0" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="227">
@@ -7445,13 +7445,13 @@
         <v>2</v>
       </c>
       <c r="F227" s="0" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="G227" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H227" s="0" t="n">
-        <v>5.67</v>
+        <v>9.67</v>
       </c>
       <c r="I227" s="0" t="n">
         <v>12</v>
@@ -7483,7 +7483,7 @@
         <v>0</v>
       </c>
       <c r="I228" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="229">
@@ -7503,13 +7503,13 @@
         <v>2</v>
       </c>
       <c r="F229" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G229" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H229" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I229" s="0" t="n">
         <v>3</v>
@@ -7541,7 +7541,7 @@
         <v>0.5</v>
       </c>
       <c r="I230" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="231">
@@ -7552,25 +7552,25 @@
         <v>247</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D231" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E231" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F231" s="0" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="G231" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H231" s="0" t="n">
-        <v>4.5</v>
+        <v>26</v>
       </c>
       <c r="I231" s="0" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="232">
@@ -7590,16 +7590,16 @@
         <v>1</v>
       </c>
       <c r="F232" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G232" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H232" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I232" s="0" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="233">
@@ -7610,7 +7610,7 @@
         <v>249</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="D233" s="0" t="n">
         <v>1</v>
@@ -7619,16 +7619,16 @@
         <v>1</v>
       </c>
       <c r="F233" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G233" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H233" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I233" s="0" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="234">
@@ -7648,16 +7648,16 @@
         <v>1</v>
       </c>
       <c r="F234" s="0" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G234" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H234" s="0" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="I234" s="0" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="235">
